--- a/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
+++ b/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\django_2704\myDjEnv\setup\polls\elevations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4DED4-C0F1-4B4A-884A-AB2E07098371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62797AF9-7689-448F-AA42-5103E833D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{F8D1EF22-B66F-4179-ACF7-1D1A6D23B096}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760A265-C1D5-46A3-89D8-E18FBAF869D3}">
   <dimension ref="A1:B570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +404,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="B2">
-        <v>2.5666666666666664</v>
+        <v>2.56666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
+++ b/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\django_2704\myDjEnv\setup\polls\elevations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62797AF9-7689-448F-AA42-5103E833D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6AD39-D587-400F-B0FB-2E300B3948C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{F8D1EF22-B66F-4179-ACF7-1D1A6D23B096}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760A265-C1D5-46A3-89D8-E18FBAF869D3}">
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="B570" sqref="B570"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A457" sqref="A457:XFD457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,135 +1241,135 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>220.93333333333334</v>
+        <v>220.96666666666667</v>
       </c>
       <c r="B107">
-        <v>0.11666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>220.96666666666667</v>
+        <v>221.66666666666666</v>
       </c>
       <c r="B108">
-        <v>0.8</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>221.66666666666666</v>
+        <v>222.16666666666666</v>
       </c>
       <c r="B109">
-        <v>0.48333333333333334</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>222.16666666666666</v>
+        <v>222.7</v>
       </c>
       <c r="B110">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>222.7</v>
+        <v>223.06666666666666</v>
       </c>
       <c r="B111">
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>223.06666666666666</v>
+        <v>226.56666666666666</v>
       </c>
       <c r="B112">
-        <v>0.38333333333333336</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>226.56666666666666</v>
+        <v>226.88333333333333</v>
       </c>
       <c r="B113">
-        <v>0.31666666666666665</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>226.88333333333333</v>
+        <v>227.05</v>
       </c>
       <c r="B114">
-        <v>0.3</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>227.05</v>
+        <v>227.56666666666666</v>
       </c>
       <c r="B115">
-        <v>0.26666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>227.56666666666666</v>
+        <v>227.96666666666667</v>
       </c>
       <c r="B116">
-        <v>6.6666666666666666E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>227.96666666666667</v>
+        <v>227.98333333333332</v>
       </c>
       <c r="B117">
-        <v>0.25</v>
+        <v>1.1166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>227.98333333333332</v>
+        <v>228.21666666666667</v>
       </c>
       <c r="B118">
-        <v>1.1166666666666667</v>
+        <v>0.81666666666666665</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>228.21666666666667</v>
+        <v>228.26666666666668</v>
       </c>
       <c r="B119">
-        <v>0.81666666666666665</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>228.26666666666668</v>
+        <v>228.58333333333334</v>
       </c>
       <c r="B120">
-        <v>0.1</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>228.58333333333334</v>
+        <v>228.95</v>
       </c>
       <c r="B121">
-        <v>0.36666666666666664</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>228.95</v>
+        <v>229.03333333333333</v>
       </c>
       <c r="B122">
-        <v>1.7</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>229.03333333333333</v>
+        <v>229.43333333333334</v>
       </c>
       <c r="B123">
         <v>0.46666666666666667</v>
@@ -1377,63 +1377,63 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>229.43333333333334</v>
+        <v>229.56666666666666</v>
       </c>
       <c r="B124">
-        <v>0.46666666666666667</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>229.56666666666666</v>
+        <v>230.2</v>
       </c>
       <c r="B125">
-        <v>0.31666666666666665</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>230.2</v>
+        <v>230.36666666666667</v>
       </c>
       <c r="B126">
-        <v>0.11666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>230.36666666666667</v>
+        <v>230.58333333333334</v>
       </c>
       <c r="B127">
-        <v>0.13333333333333333</v>
+        <v>1.5666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>230.58333333333334</v>
+        <v>230.76666666666668</v>
       </c>
       <c r="B128">
-        <v>1.5666666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>230.76666666666668</v>
+        <v>231.31666666666666</v>
       </c>
       <c r="B129">
-        <v>0.41666666666666669</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>231.31666666666666</v>
+        <v>231.61666666666667</v>
       </c>
       <c r="B130">
-        <v>0.11666666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>231.61666666666667</v>
+        <v>231.7</v>
       </c>
       <c r="B131">
         <v>0.16666666666666666</v>
@@ -1441,95 +1441,95 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>231.7</v>
+        <v>231.78333333333333</v>
       </c>
       <c r="B132">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>231.78333333333333</v>
+        <v>231.9</v>
       </c>
       <c r="B133">
-        <v>3.3333333333333333E-2</v>
+        <v>1.4833333333333334</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>231.9</v>
+        <v>232.01666666666668</v>
       </c>
       <c r="B134">
-        <v>1.4833333333333334</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>232.01666666666668</v>
+        <v>232.11666666666667</v>
       </c>
       <c r="B135">
-        <v>0.11666666666666667</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>232.11666666666667</v>
+        <v>232.31666666666666</v>
       </c>
       <c r="B136">
-        <v>0.05</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>232.31666666666666</v>
+        <v>232.33333333333334</v>
       </c>
       <c r="B137">
-        <v>0.46666666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>232.33333333333334</v>
+        <v>232.46666666666667</v>
       </c>
       <c r="B138">
-        <v>0.11666666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>232.46666666666667</v>
+        <v>232.53333333333333</v>
       </c>
       <c r="B139">
-        <v>8.3333333333333329E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>232.53333333333333</v>
+        <v>232.63333333333333</v>
       </c>
       <c r="B140">
-        <v>3.3333333333333333E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>232.63333333333333</v>
+        <v>232.66666666666666</v>
       </c>
       <c r="B141">
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>232.66666666666666</v>
+        <v>232.8</v>
       </c>
       <c r="B142">
-        <v>0.46666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>232.8</v>
+        <v>233.2</v>
       </c>
       <c r="B143">
         <v>6.6666666666666666E-2</v>
@@ -1537,23 +1537,23 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>233.2</v>
+        <v>233.36666666666667</v>
       </c>
       <c r="B144">
-        <v>6.6666666666666666E-2</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>233.36666666666667</v>
+        <v>233.96666666666667</v>
       </c>
       <c r="B145">
-        <v>0.31666666666666665</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>233.96666666666667</v>
+        <v>234.3</v>
       </c>
       <c r="B146">
         <v>0.4</v>
@@ -1561,151 +1561,151 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>234.3</v>
+        <v>234.56666666666666</v>
       </c>
       <c r="B147">
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>234.56666666666666</v>
+        <v>235.08333333333334</v>
       </c>
       <c r="B148">
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>235.08333333333334</v>
+        <v>235.13333333333333</v>
       </c>
       <c r="B149">
-        <v>0.1</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>235.13333333333333</v>
+        <v>235.46666666666667</v>
       </c>
       <c r="B150">
-        <v>0.71666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>235.46666666666667</v>
+        <v>235.81666666666666</v>
       </c>
       <c r="B151">
-        <v>0.3</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>235.81666666666666</v>
+        <v>236.2</v>
       </c>
       <c r="B152">
-        <v>0.13333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>236.2</v>
+        <v>236.55</v>
       </c>
       <c r="B153">
-        <v>8.3333333333333329E-2</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>236.55</v>
+        <v>236.73333333333332</v>
       </c>
       <c r="B154">
-        <v>0.66666666666666663</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>236.73333333333332</v>
+        <v>237.5</v>
       </c>
       <c r="B155">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>237.5</v>
+        <v>237.63333333333333</v>
       </c>
       <c r="B156">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>237.63333333333333</v>
+        <v>238.15</v>
       </c>
       <c r="B157">
-        <v>0.1</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>238.15</v>
+        <v>238.16666666666666</v>
       </c>
       <c r="B158">
-        <v>0.76666666666666672</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>238.16666666666666</v>
+        <v>238.21666666666667</v>
       </c>
       <c r="B159">
-        <v>0.6166666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>238.21666666666667</v>
+        <v>238.31666666666666</v>
       </c>
       <c r="B160">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>238.31666666666666</v>
+        <v>239</v>
       </c>
       <c r="B161">
-        <v>0.5</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>239</v>
+        <v>239.35</v>
       </c>
       <c r="B162">
-        <v>0.6166666666666667</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>239.35</v>
+        <v>239.36666666666667</v>
       </c>
       <c r="B163">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>239.36666666666667</v>
+        <v>239.6</v>
       </c>
       <c r="B164">
-        <v>0.95</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>239.6</v>
+        <v>239.76666666666668</v>
       </c>
       <c r="B165">
         <v>0.21666666666666667</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>239.76666666666668</v>
+        <v>239.96666666666667</v>
       </c>
       <c r="B166">
         <v>0.21666666666666667</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>239.96666666666667</v>
+        <v>240.06666666666666</v>
       </c>
       <c r="B167">
         <v>0.21666666666666667</v>
@@ -1729,383 +1729,383 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>240.06666666666666</v>
+        <v>240.36666666666667</v>
       </c>
       <c r="B168">
-        <v>0.21666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>240.36666666666667</v>
+        <v>240.58333333333334</v>
       </c>
       <c r="B169">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>240.58333333333334</v>
+        <v>240.61666666666667</v>
       </c>
       <c r="B170">
-        <v>0.13333333333333333</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>240.61666666666667</v>
+        <v>240.73333333333332</v>
       </c>
       <c r="B171">
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>240.73333333333332</v>
+        <v>240.75</v>
       </c>
       <c r="B172">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>240.75</v>
+        <v>240.8</v>
       </c>
       <c r="B173">
-        <v>0.45</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>240.8</v>
+        <v>241.06666666666666</v>
       </c>
       <c r="B174">
-        <v>0.21666666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>241.06666666666666</v>
+        <v>241.08333333333334</v>
       </c>
       <c r="B175">
-        <v>0.45</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>241.08333333333334</v>
+        <v>241.65</v>
       </c>
       <c r="B176">
-        <v>0.21666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>241.65</v>
+        <v>241.86666666666667</v>
       </c>
       <c r="B177">
-        <v>0.6333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>241.86666666666667</v>
+        <v>242</v>
       </c>
       <c r="B178">
-        <v>0.16666666666666666</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>242</v>
+        <v>242.11666666666667</v>
       </c>
       <c r="B179">
-        <v>0.05</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>242.11666666666667</v>
+        <v>242.16666666666666</v>
       </c>
       <c r="B180">
-        <v>0.23333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>242.16666666666666</v>
+        <v>242.25</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>242.25</v>
+        <v>242.4</v>
       </c>
       <c r="B182">
-        <v>0.05</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>242.25</v>
+        <v>242.46666666666667</v>
       </c>
       <c r="B183">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>242.4</v>
+        <v>242.5</v>
       </c>
       <c r="B184">
-        <v>0.11666666666666667</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>242.46666666666667</v>
+        <v>242.55</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>242.5</v>
+        <v>242.56666666666666</v>
       </c>
       <c r="B186">
-        <v>0.55000000000000004</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>242.55</v>
+        <v>242.68333333333334</v>
       </c>
       <c r="B187">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>242.56666666666666</v>
+        <v>242.73333333333332</v>
       </c>
       <c r="B188">
-        <v>0.31666666666666665</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>242.68333333333334</v>
+        <v>242.78333333333333</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>242.73333333333332</v>
+        <v>242.86666666666667</v>
       </c>
       <c r="B190">
-        <v>0.41666666666666669</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>242.78333333333333</v>
+        <v>242.9</v>
       </c>
       <c r="B191">
-        <v>8.3333333333333329E-2</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>242.86666666666667</v>
+        <v>243</v>
       </c>
       <c r="B192">
-        <v>0.11666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>242.9</v>
+        <v>243.01666666666668</v>
       </c>
       <c r="B193">
-        <v>0.18333333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>242.9</v>
+        <v>243.05</v>
       </c>
       <c r="B194">
-        <v>0.56666666666666665</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>243</v>
+        <v>243.08333333333334</v>
       </c>
       <c r="B195">
-        <v>0.53333333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>243.01666666666668</v>
+        <v>243.11666666666667</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>243.05</v>
+        <v>243.25</v>
       </c>
       <c r="B197">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>243.08333333333334</v>
+        <v>243.28333333333333</v>
       </c>
       <c r="B198">
-        <v>8.3333333333333329E-2</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>243.08333333333334</v>
+        <v>243.3</v>
       </c>
       <c r="B199">
-        <v>0.11666666666666667</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>243.11666666666667</v>
+        <v>243.38333333333333</v>
       </c>
       <c r="B200">
-        <v>0.11666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>243.25</v>
+        <v>243.48333333333332</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>243.28333333333333</v>
+        <v>243.7</v>
       </c>
       <c r="B202">
-        <v>0.53333333333333333</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>243.3</v>
+        <v>243.78333333333333</v>
       </c>
       <c r="B203">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>243.38333333333333</v>
+        <v>243.86666666666667</v>
       </c>
       <c r="B204">
-        <v>0.58333333333333337</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>243.48333333333332</v>
+        <v>244.1</v>
       </c>
       <c r="B205">
-        <v>0.53333333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>243.7</v>
+        <v>244.23333333333332</v>
       </c>
       <c r="B206">
-        <v>0.56666666666666665</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>243.78333333333333</v>
+        <v>244.28333333333333</v>
       </c>
       <c r="B207">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>243.86666666666667</v>
+        <v>244.33333333333334</v>
       </c>
       <c r="B208">
-        <v>0.18333333333333332</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>244.1</v>
+        <v>244.36666666666667</v>
       </c>
       <c r="B209">
-        <v>0.11666666666666667</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>244.23333333333332</v>
+        <v>244.53333333333333</v>
       </c>
       <c r="B210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>244.28333333333333</v>
+        <v>244.66666666666666</v>
       </c>
       <c r="B211">
-        <v>0.13333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>244.33333333333334</v>
+        <v>244.8</v>
       </c>
       <c r="B212">
-        <v>0.8666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>244.33333333333334</v>
+        <v>244.86666666666667</v>
       </c>
       <c r="B213">
-        <v>0.93333333333333335</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>244.36666666666667</v>
+        <v>245.15</v>
       </c>
       <c r="B214">
-        <v>0.55000000000000004</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>244.36666666666667</v>
+        <v>245.58333333333334</v>
       </c>
       <c r="B215">
         <v>0.13333333333333333</v>
@@ -2113,215 +2113,215 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>244.53333333333333</v>
+        <v>245.78333333333333</v>
       </c>
       <c r="B216">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>244.66666666666666</v>
+        <v>245.96666666666667</v>
       </c>
       <c r="B217">
-        <v>0.53333333333333333</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>244.8</v>
+        <v>246.33333333333334</v>
       </c>
       <c r="B218">
-        <v>0.13333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>244.86666666666667</v>
+        <v>246.66666666666666</v>
       </c>
       <c r="B219">
-        <v>0.6333333333333333</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>245.15</v>
+        <v>246.76666666666668</v>
       </c>
       <c r="B220">
-        <v>0.6166666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>245.58333333333334</v>
+        <v>247.13333333333333</v>
       </c>
       <c r="B221">
-        <v>0.13333333333333333</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>245.78333333333333</v>
+        <v>247.65</v>
       </c>
       <c r="B222">
-        <v>0.15</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>245.96666666666667</v>
+        <v>247.68333333333334</v>
       </c>
       <c r="B223">
-        <v>0.21666666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>246.33333333333334</v>
+        <v>248.05</v>
       </c>
       <c r="B224">
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>246.66666666666666</v>
+        <v>248.36666666666667</v>
       </c>
       <c r="B225">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>246.76666666666668</v>
+        <v>248.38333333333333</v>
       </c>
       <c r="B226">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>247.13333333333333</v>
+        <v>248.65</v>
       </c>
       <c r="B227">
-        <v>0.18333333333333332</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>247.65</v>
+        <v>248.75</v>
       </c>
       <c r="B228">
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>247.68333333333334</v>
+        <v>248.76666666666668</v>
       </c>
       <c r="B229">
-        <v>0.11666666666666667</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>248.05</v>
+        <v>248.85</v>
       </c>
       <c r="B230">
-        <v>0.2</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>248.36666666666667</v>
+        <v>248.96666666666667</v>
       </c>
       <c r="B231">
-        <v>0.2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>248.38333333333333</v>
+        <v>249.06666666666666</v>
       </c>
       <c r="B232">
-        <v>0.2</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>248.65</v>
+        <v>249.11666666666667</v>
       </c>
       <c r="B233">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>248.75</v>
+        <v>249.46666666666667</v>
       </c>
       <c r="B234">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>248.75</v>
+        <v>250</v>
       </c>
       <c r="B235">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>248.76666666666668</v>
+        <v>250.53333333333333</v>
       </c>
       <c r="B236">
-        <v>0.05</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>248.85</v>
+        <v>251.16666666666666</v>
       </c>
       <c r="B237">
-        <v>0.18333333333333332</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>248.96666666666667</v>
+        <v>251.5</v>
       </c>
       <c r="B238">
-        <v>1.6666666666666666E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>249.06666666666666</v>
+        <v>251.55</v>
       </c>
       <c r="B239">
-        <v>0.18333333333333332</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>249.11666666666667</v>
+        <v>251.65</v>
       </c>
       <c r="B240">
-        <v>0.2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>249.46666666666667</v>
+        <v>252.23333333333332</v>
       </c>
       <c r="B241">
-        <v>0.2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>250</v>
+        <v>252.56666666666666</v>
       </c>
       <c r="B242">
         <v>0.15</v>
@@ -2329,15 +2329,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>250.53333333333333</v>
+        <v>252.86666666666667</v>
       </c>
       <c r="B243">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>251.16666666666666</v>
+        <v>253.08333333333334</v>
       </c>
       <c r="B244">
         <v>3.3333333333333333E-2</v>
@@ -2345,63 +2345,63 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>251.5</v>
+        <v>254.56666666666666</v>
       </c>
       <c r="B245">
-        <v>0.15</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>251.55</v>
+        <v>255.15</v>
       </c>
       <c r="B246">
-        <v>3.3333333333333333E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>251.65</v>
+        <v>255.51666666666668</v>
       </c>
       <c r="B247">
-        <v>3.3333333333333333E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>252.23333333333332</v>
+        <v>255.68333333333334</v>
       </c>
       <c r="B248">
-        <v>3.3333333333333333E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>252.56666666666666</v>
+        <v>255.91666666666666</v>
       </c>
       <c r="B249">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>252.86666666666667</v>
+        <v>255.95</v>
       </c>
       <c r="B250">
-        <v>3.3333333333333333E-2</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>253.08333333333334</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="B251">
-        <v>3.3333333333333333E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>254.56666666666666</v>
+        <v>256.11666666666667</v>
       </c>
       <c r="B252">
         <v>0.11666666666666667</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>255.15</v>
+        <v>256.18333333333334</v>
       </c>
       <c r="B253">
         <v>0.15</v>
@@ -2417,199 +2417,199 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>255.51666666666668</v>
+        <v>256.2</v>
       </c>
       <c r="B254">
-        <v>0.16666666666666666</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>255.68333333333334</v>
+        <v>256.26666666666665</v>
       </c>
       <c r="B255">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>255.91666666666666</v>
+        <v>256.28333333333336</v>
       </c>
       <c r="B256">
-        <v>0.05</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>255.91666666666666</v>
+        <v>256.3</v>
       </c>
       <c r="B257">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>255.95</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="B258">
-        <v>0.18333333333333332</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>256.10000000000002</v>
+        <v>256.64999999999998</v>
       </c>
       <c r="B259">
-        <v>0.1</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>256.11666666666667</v>
+        <v>256.71666666666664</v>
       </c>
       <c r="B260">
-        <v>0.05</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>256.11666666666667</v>
+        <v>256.81666666666666</v>
       </c>
       <c r="B261">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>256.18333333333334</v>
+        <v>256.83333333333331</v>
       </c>
       <c r="B262">
-        <v>0.15</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>256.2</v>
+        <v>256.86666666666667</v>
       </c>
       <c r="B263">
-        <v>0.15</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>256.2</v>
+        <v>256.91666666666669</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>256.26666666666665</v>
+        <v>256.93333333333334</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>256.28333333333336</v>
+        <v>257.01666666666665</v>
       </c>
       <c r="B266">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>256.3</v>
+        <v>257.21666666666664</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>256.3</v>
+        <v>257.23333333333335</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>256.39999999999998</v>
+        <v>257.26666666666665</v>
       </c>
       <c r="B269">
-        <v>1.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>256.64999999999998</v>
+        <v>257.3</v>
       </c>
       <c r="B270">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>256.71666666666664</v>
+        <v>257.33333333333331</v>
       </c>
       <c r="B271">
-        <v>1.6666666666666666E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>256.81666666666666</v>
+        <v>257.35000000000002</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>256.83333333333331</v>
+        <v>257.36666666666667</v>
       </c>
       <c r="B273">
-        <v>1.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>256.86666666666667</v>
+        <v>257.45</v>
       </c>
       <c r="B274">
-        <v>1.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>256.91666666666669</v>
+        <v>257.5</v>
       </c>
       <c r="B275">
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>256.93333333333334</v>
+        <v>257.56666666666666</v>
       </c>
       <c r="B276">
-        <v>6.6666666666666666E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>257.01666666666665</v>
+        <v>257.64999999999998</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>257.01666666666665</v>
+        <v>257.68333333333334</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -2617,15 +2617,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>257.21666666666664</v>
+        <v>257.7</v>
       </c>
       <c r="B279">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>257.23333333333335</v>
+        <v>257.73333333333335</v>
       </c>
       <c r="B280">
         <v>6.6666666666666666E-2</v>
@@ -2633,95 +2633,95 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>257.26666666666665</v>
+        <v>257.81666666666666</v>
       </c>
       <c r="B281">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>257.3</v>
+        <v>257.98333333333335</v>
       </c>
       <c r="B282">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>257.3</v>
+        <v>258.03333333333336</v>
       </c>
       <c r="B283">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>257.33333333333331</v>
+        <v>258.05</v>
       </c>
       <c r="B284">
-        <v>0.15</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>257.35000000000002</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="B285">
-        <v>1.6666666666666666E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>257.36666666666667</v>
+        <v>258.48333333333335</v>
       </c>
       <c r="B286">
-        <v>0.13333333333333333</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>257.45</v>
+        <v>258.5</v>
       </c>
       <c r="B287">
-        <v>0.05</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>257.5</v>
+        <v>258.55</v>
       </c>
       <c r="B288">
-        <v>0.05</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>257.56666666666666</v>
+        <v>258.58333333333331</v>
       </c>
       <c r="B289">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>257.56666666666666</v>
+        <v>258.68333333333334</v>
       </c>
       <c r="B290">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>257.64999999999998</v>
+        <v>258.83333333333331</v>
       </c>
       <c r="B291">
-        <v>0.21666666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>257.68333333333334</v>
+        <v>258.88333333333333</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -2729,39 +2729,39 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>257.7</v>
+        <v>259.46666666666664</v>
       </c>
       <c r="B293">
-        <v>0.2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>257.7</v>
+        <v>259.53333333333336</v>
       </c>
       <c r="B294">
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>257.73333333333335</v>
+        <v>259.83333333333331</v>
       </c>
       <c r="B295">
-        <v>6.6666666666666666E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>257.81666666666666</v>
+        <v>260.13333333333333</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>257.98333333333335</v>
+        <v>260.35000000000002</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -2769,63 +2769,63 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>258.03333333333336</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="B298">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>258.05</v>
+        <v>260.46666666666664</v>
       </c>
       <c r="B299">
-        <v>0.21666666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>258.10000000000002</v>
+        <v>260.51666666666665</v>
       </c>
       <c r="B300">
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>258.48333333333335</v>
+        <v>260.71666666666664</v>
       </c>
       <c r="B301">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>258.5</v>
+        <v>260.8</v>
       </c>
       <c r="B302">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>258.55</v>
+        <v>261</v>
       </c>
       <c r="B303">
-        <v>0.13333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>258.58333333333331</v>
+        <v>261.48333333333335</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>258.58333333333331</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>258.68333333333334</v>
+        <v>261.66666666666669</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -2841,23 +2841,23 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>258.83333333333331</v>
+        <v>261.8</v>
       </c>
       <c r="B307">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>258.88333333333333</v>
+        <v>262</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>258.88333333333333</v>
+        <v>262.61666666666667</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>259.46666666666664</v>
+        <v>263.05</v>
       </c>
       <c r="B310">
         <v>8.3333333333333329E-2</v>
@@ -2873,23 +2873,23 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>259.53333333333336</v>
+        <v>263.35000000000002</v>
       </c>
       <c r="B311">
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>259.83333333333331</v>
+        <v>263.43333333333334</v>
       </c>
       <c r="B312">
-        <v>0.1</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>260.13333333333333</v>
+        <v>263.5</v>
       </c>
       <c r="B313">
         <v>0.11666666666666667</v>
@@ -2897,39 +2897,39 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>260.35000000000002</v>
+        <v>263.53333333333336</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>260.39999999999998</v>
+        <v>263.64999999999998</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>260.46666666666664</v>
+        <v>263.85000000000002</v>
       </c>
       <c r="B316">
-        <v>0.11666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>260.51666666666665</v>
+        <v>264</v>
       </c>
       <c r="B317">
-        <v>8.3333333333333329E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>260.71666666666664</v>
+        <v>264.18333333333334</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -2937,463 +2937,463 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>260.8</v>
+        <v>264.2</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>261</v>
+        <v>264.3</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>261.48333333333335</v>
+        <v>264.33333333333331</v>
       </c>
       <c r="B321">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>261.60000000000002</v>
+        <v>264.48333333333335</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>261.66666666666669</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>261.8</v>
+        <v>264.8</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>262</v>
+        <v>264.96666666666664</v>
       </c>
       <c r="B325">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>262.61666666666667</v>
+        <v>265.01666666666665</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>263.05</v>
+        <v>265.36666666666667</v>
       </c>
       <c r="B327">
-        <v>8.3333333333333329E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>263.35000000000002</v>
+        <v>265.81666666666666</v>
       </c>
       <c r="B328">
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>263.43333333333334</v>
+        <v>266</v>
       </c>
       <c r="B329">
-        <v>1.6666666666666666E-2</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>263.5</v>
+        <v>266.03333333333336</v>
       </c>
       <c r="B330">
-        <v>0.11666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>263.53333333333336</v>
+        <v>266.13333333333333</v>
       </c>
       <c r="B331">
-        <v>8.3333333333333329E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>263.64999999999998</v>
+        <v>266.2</v>
       </c>
       <c r="B332">
-        <v>0.13333333333333333</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>263.85000000000002</v>
+        <v>266.91666666666669</v>
       </c>
       <c r="B333">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>264</v>
+        <v>266.96666666666664</v>
       </c>
       <c r="B334">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>264.18333333333334</v>
+        <v>267.16666666666669</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>264.2</v>
+        <v>267.2</v>
       </c>
       <c r="B336">
-        <v>6.6666666666666666E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>264.3</v>
+        <v>267.28333333333336</v>
       </c>
       <c r="B337">
-        <v>0.11666666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>264.33333333333331</v>
+        <v>267.41666666666669</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>264.48333333333335</v>
+        <v>267.78333333333336</v>
       </c>
       <c r="B339">
-        <v>0.11666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>264.60000000000002</v>
+        <v>267.8</v>
       </c>
       <c r="B340">
-        <v>3.3333333333333333E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>264.8</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="B341">
-        <v>0.11666666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>264.96666666666664</v>
+        <v>267.93333333333334</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>265.01666666666665</v>
+        <v>268.08333333333331</v>
       </c>
       <c r="B343">
-        <v>0.1</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>265.36666666666667</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="B344">
-        <v>3.3333333333333333E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>265.81666666666666</v>
+        <v>268.28333333333336</v>
       </c>
       <c r="B345">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>266</v>
+        <v>268.46666666666664</v>
       </c>
       <c r="B346">
-        <v>0.23333333333333334</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>266.03333333333336</v>
+        <v>268.85000000000002</v>
       </c>
       <c r="B347">
-        <v>0.13333333333333333</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>266.03333333333336</v>
+        <v>268.86666666666667</v>
       </c>
       <c r="B348">
-        <v>6.6666666666666666E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>266.13333333333333</v>
+        <v>268.98333333333335</v>
       </c>
       <c r="B349">
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>266.2</v>
+        <v>269.21666666666664</v>
       </c>
       <c r="B350">
-        <v>0.05</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>266.91666666666669</v>
+        <v>269.28333333333336</v>
       </c>
       <c r="B351">
-        <v>0.13333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>266.91666666666669</v>
+        <v>269.38333333333333</v>
       </c>
       <c r="B352">
-        <v>0.13333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>266.96666666666664</v>
+        <v>269.45</v>
       </c>
       <c r="B353">
-        <v>6.6666666666666666E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>267.16666666666669</v>
+        <v>269.46666666666664</v>
       </c>
       <c r="B354">
-        <v>0.1</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>267.2</v>
+        <v>269.53333333333336</v>
       </c>
       <c r="B355">
-        <v>0.11666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>267.2</v>
+        <v>269.95</v>
       </c>
       <c r="B356">
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>267.28333333333336</v>
+        <v>270</v>
       </c>
       <c r="B357">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>267.38333333333333</v>
+        <v>270.06666666666666</v>
       </c>
       <c r="B358">
-        <v>0.41666666666666669</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>267.41666666666669</v>
+        <v>270.41666666666669</v>
       </c>
       <c r="B359">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>267.78333333333336</v>
+        <v>270.48333333333335</v>
       </c>
       <c r="B360">
-        <v>0.8</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>267.8</v>
+        <v>270.64999999999998</v>
       </c>
       <c r="B361">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>267.8</v>
+        <v>270.68333333333334</v>
       </c>
       <c r="B362">
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>267.89999999999998</v>
+        <v>270.78333333333336</v>
       </c>
       <c r="B363">
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>267.89999999999998</v>
+        <v>270.85000000000002</v>
       </c>
       <c r="B364">
-        <v>0.6166666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>267.89999999999998</v>
+        <v>270.95</v>
       </c>
       <c r="B365">
-        <v>0.43333333333333335</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>267.93333333333334</v>
+        <v>271.13333333333333</v>
       </c>
       <c r="B366">
-        <v>0.11666666666666667</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>268.08333333333331</v>
+        <v>271.2</v>
       </c>
       <c r="B367">
-        <v>0.41666666666666669</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>268.10000000000002</v>
+        <v>271.36666666666667</v>
       </c>
       <c r="B368">
-        <v>0.11666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>268.28333333333336</v>
+        <v>271.46666666666664</v>
       </c>
       <c r="B369">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>268.28333333333336</v>
+        <v>271.73333333333335</v>
       </c>
       <c r="B370">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>268.46666666666664</v>
+        <v>271.91666666666669</v>
       </c>
       <c r="B371">
-        <v>0.43333333333333335</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>268.85000000000002</v>
+        <v>271.98333333333335</v>
       </c>
       <c r="B372">
-        <v>0.58333333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>268.86666666666667</v>
+        <v>272</v>
       </c>
       <c r="B373">
-        <v>0.7</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>268.98333333333335</v>
+        <v>272.03333333333336</v>
       </c>
       <c r="B374">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>269.21666666666664</v>
+        <v>272.14999999999998</v>
       </c>
       <c r="B375">
-        <v>0.11666666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>269.28333333333336</v>
+        <v>272.26666666666665</v>
       </c>
       <c r="B376">
         <v>0.33333333333333331</v>
@@ -3401,39 +3401,39 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>269.38333333333333</v>
+        <v>272.3</v>
       </c>
       <c r="B377">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>269.45</v>
+        <v>272.36666666666667</v>
       </c>
       <c r="B378">
-        <v>0.11666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>269.46666666666664</v>
+        <v>272.51666666666665</v>
       </c>
       <c r="B379">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>269.53333333333336</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="B380">
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>269.95</v>
+        <v>272.61666666666667</v>
       </c>
       <c r="B381">
         <v>0.7</v>
@@ -3441,391 +3441,391 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>270</v>
+        <v>272.85000000000002</v>
       </c>
       <c r="B382">
-        <v>0.1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>270</v>
+        <v>272.88333333333333</v>
       </c>
       <c r="B383">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>270.06666666666666</v>
+        <v>273.31666666666666</v>
       </c>
       <c r="B384">
-        <v>0.68333333333333335</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>270.06666666666666</v>
+        <v>273.38333333333333</v>
       </c>
       <c r="B385">
-        <v>0.35</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>270.41666666666669</v>
+        <v>273.5</v>
       </c>
       <c r="B386">
-        <v>0.1</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>270.48333333333335</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="B387">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>270.64999999999998</v>
+        <v>273.73333333333335</v>
       </c>
       <c r="B388">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>270.68333333333334</v>
+        <v>273.75</v>
       </c>
       <c r="B389">
-        <v>0.1</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>270.78333333333336</v>
+        <v>273.8</v>
       </c>
       <c r="B390">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>270.85000000000002</v>
+        <v>273.85000000000002</v>
       </c>
       <c r="B391">
-        <v>0.11666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>270.95</v>
+        <v>273.86666666666667</v>
       </c>
       <c r="B392">
-        <v>0.13333333333333333</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>271.13333333333333</v>
+        <v>274.05</v>
       </c>
       <c r="B393">
-        <v>0.73333333333333328</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>271.2</v>
+        <v>274.08333333333331</v>
       </c>
       <c r="B394">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>271.26666666666665</v>
+        <v>274.18333333333334</v>
       </c>
       <c r="B395">
-        <v>0.13333333333333333</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>271.36666666666667</v>
+        <v>274.41666666666669</v>
       </c>
       <c r="B396">
-        <v>0.33333333333333331</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>271.46666666666664</v>
+        <v>274.64999999999998</v>
       </c>
       <c r="B397">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>271.73333333333335</v>
+        <v>274.68333333333334</v>
       </c>
       <c r="B398">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>271.91666666666669</v>
+        <v>274.75</v>
       </c>
       <c r="B399">
-        <v>0.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>271.98333333333335</v>
+        <v>274.91666666666669</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>272</v>
+        <v>275.16666666666669</v>
       </c>
       <c r="B401">
-        <v>0.68333333333333335</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>272.03333333333336</v>
+        <v>275.25</v>
       </c>
       <c r="B402">
-        <v>0.6</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>272.14999999999998</v>
+        <v>275.38333333333333</v>
       </c>
       <c r="B403">
-        <v>0.16666666666666666</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>272.26666666666665</v>
+        <v>275.56666666666666</v>
       </c>
       <c r="B404">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>272.3</v>
+        <v>275.75</v>
       </c>
       <c r="B405">
-        <v>6.6666666666666666E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>272.36666666666667</v>
+        <v>275.86666666666667</v>
       </c>
       <c r="B406">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>272.51666666666665</v>
+        <v>275.89999999999998</v>
       </c>
       <c r="B407">
-        <v>0.1</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>272.60000000000002</v>
+        <v>276.13333333333333</v>
       </c>
       <c r="B408">
-        <v>0.26666666666666666</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>272.61666666666667</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="B409">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>272.85000000000002</v>
+        <v>277.03333333333336</v>
       </c>
       <c r="B410">
-        <v>0.83333333333333337</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>272.85000000000002</v>
+        <v>277.98333333333335</v>
       </c>
       <c r="B411">
-        <v>6.6666666666666666E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>272.88333333333333</v>
+        <v>278</v>
       </c>
       <c r="B412">
-        <v>0.1</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>273.31666666666666</v>
+        <v>278.21666666666664</v>
       </c>
       <c r="B413">
-        <v>0.26666666666666666</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>273.38333333333333</v>
+        <v>278.28333333333336</v>
       </c>
       <c r="B414">
-        <v>0.48333333333333334</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>273.5</v>
+        <v>278.31666666666666</v>
       </c>
       <c r="B415">
-        <v>0.71666666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>273.60000000000002</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="B416">
-        <v>0.6</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>273.73333333333335</v>
+        <v>278.5</v>
       </c>
       <c r="B417">
-        <v>0.1</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>273.75</v>
+        <v>278.73333333333335</v>
       </c>
       <c r="B418">
-        <v>0.8833333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>273.8</v>
+        <v>278.76666666666665</v>
       </c>
       <c r="B419">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>273.85000000000002</v>
+        <v>278.86666666666667</v>
       </c>
       <c r="B420">
-        <v>0.33333333333333331</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>273.86666666666667</v>
+        <v>278.95</v>
       </c>
       <c r="B421">
-        <v>0.26666666666666666</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>274.05</v>
+        <v>279.03333333333336</v>
       </c>
       <c r="B422">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>274.08333333333331</v>
+        <v>279.23333333333335</v>
       </c>
       <c r="B423">
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>274.18333333333334</v>
+        <v>279.3</v>
       </c>
       <c r="B424">
-        <v>0.38333333333333336</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>274.41666666666669</v>
+        <v>279.33333333333331</v>
       </c>
       <c r="B425">
-        <v>0.68333333333333335</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>274.64999999999998</v>
+        <v>279.51666666666665</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>274.68333333333334</v>
+        <v>279.56666666666666</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>274.75</v>
+        <v>279.64999999999998</v>
       </c>
       <c r="B428">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>274.91666666666669</v>
+        <v>279.71666666666664</v>
       </c>
       <c r="B429">
-        <v>0.38333333333333336</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>275.16666666666669</v>
+        <v>279.76666666666665</v>
       </c>
       <c r="B430">
         <v>0.6166666666666667</v>
@@ -3833,1127 +3833,863 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>275.25</v>
+        <v>279.8</v>
       </c>
       <c r="B431">
-        <v>0.51666666666666672</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>275.38333333333333</v>
+        <v>280.03333333333336</v>
       </c>
       <c r="B432">
-        <v>0.51666666666666672</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>275.56666666666666</v>
+        <v>280.45</v>
       </c>
       <c r="B433">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>275.75</v>
+        <v>280.68333333333334</v>
       </c>
       <c r="B434">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>275.86666666666667</v>
+        <v>280.73333333333335</v>
       </c>
       <c r="B435">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>275.89999999999998</v>
+        <v>280.96666666666664</v>
       </c>
       <c r="B436">
-        <v>0.68333333333333335</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>276.13333333333333</v>
+        <v>281.06666666666666</v>
       </c>
       <c r="B437">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>276.89999999999998</v>
+        <v>281.33333333333331</v>
       </c>
       <c r="B438">
-        <v>0.55000000000000004</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>277.03333333333336</v>
+        <v>281.35000000000002</v>
       </c>
       <c r="B439">
-        <v>1.0666666666666667</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>277.98333333333335</v>
+        <v>281.64999999999998</v>
       </c>
       <c r="B440">
-        <v>0.41666666666666669</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>278</v>
+        <v>281.7</v>
       </c>
       <c r="B441">
-        <v>0.68333333333333335</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>278.21666666666664</v>
+        <v>282.23333333333335</v>
       </c>
       <c r="B442">
-        <v>1.1333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>278.28333333333336</v>
+        <v>283.26666666666665</v>
       </c>
       <c r="B443">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>278.31666666666666</v>
+        <v>283.41666666666669</v>
       </c>
       <c r="B444">
-        <v>0.16666666666666666</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>278.39999999999998</v>
+        <v>284.08333333333331</v>
       </c>
       <c r="B445">
-        <v>1.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>278.5</v>
+        <v>284.16666666666669</v>
       </c>
       <c r="B446">
-        <v>0.56666666666666665</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>278.73333333333335</v>
+        <v>284.2</v>
       </c>
       <c r="B447">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>278.76666666666665</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="B448">
-        <v>0.5</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>278.86666666666667</v>
+        <v>284.63333333333333</v>
       </c>
       <c r="B449">
-        <v>0.56666666666666665</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>278.95</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="B450">
-        <v>0.56666666666666665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>279.03333333333336</v>
+        <v>285.14999999999998</v>
       </c>
       <c r="B451">
-        <v>0.5</v>
+        <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>279.23333333333335</v>
+        <v>285.43333333333334</v>
       </c>
       <c r="B452">
-        <v>8.3333333333333329E-2</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>279.3</v>
+        <v>285.46666666666664</v>
       </c>
       <c r="B453">
-        <v>0.13333333333333333</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>279.33333333333331</v>
+        <v>285.88333333333333</v>
       </c>
       <c r="B454">
-        <v>0.18333333333333332</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>279.51666666666665</v>
+        <v>286.01666666666665</v>
       </c>
       <c r="B455">
-        <v>1.2166666666666668</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>279.56666666666666</v>
+        <v>286.21666666666664</v>
       </c>
       <c r="B456">
-        <v>0.8</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>279.64999999999998</v>
+        <v>286.23333333333335</v>
       </c>
       <c r="B457">
-        <v>0.45</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>279.71666666666664</v>
+        <v>287.35000000000002</v>
       </c>
       <c r="B458">
-        <v>0.6166666666666667</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>279.76666666666665</v>
+        <v>287.75</v>
       </c>
       <c r="B459">
-        <v>6.6666666666666666E-2</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>279.76666666666665</v>
+        <v>288.05</v>
       </c>
       <c r="B460">
-        <v>0.6166666666666667</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>279.8</v>
+        <v>288.18333333333334</v>
       </c>
       <c r="B461">
-        <v>0.6166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>280.03333333333336</v>
+        <v>288.25</v>
       </c>
       <c r="B462">
-        <v>0.18333333333333332</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>280.45</v>
+        <v>288.53333333333336</v>
       </c>
       <c r="B463">
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>280.68333333333334</v>
+        <v>288.73333333333335</v>
       </c>
       <c r="B464">
-        <v>0.1</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>280.73333333333335</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="B465">
-        <v>0.6</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>280.73333333333335</v>
+        <v>289.36666666666667</v>
       </c>
       <c r="B466">
-        <v>0.1</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>280.96666666666664</v>
+        <v>289.73333333333335</v>
       </c>
       <c r="B467">
-        <v>1.3166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>281.06666666666666</v>
+        <v>290.38333333333333</v>
       </c>
       <c r="B468">
-        <v>0.15</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>281.33333333333331</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="B469">
-        <v>0.8666666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>281.35000000000002</v>
+        <v>290.96666666666664</v>
       </c>
       <c r="B470">
-        <v>0.18333333333333332</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>281.64999999999998</v>
+        <v>291.31666666666666</v>
       </c>
       <c r="B471">
-        <v>0.8833333333333333</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>281.7</v>
+        <v>291.71666666666664</v>
       </c>
       <c r="B472">
-        <v>0.05</v>
+        <v>1.0166666666666666</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>282.23333333333335</v>
+        <v>291.75</v>
       </c>
       <c r="B473">
-        <v>0.9</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>283.26666666666665</v>
+        <v>291.83333333333331</v>
       </c>
       <c r="B474">
-        <v>0.7</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>283.41666666666669</v>
+        <v>291.93333333333334</v>
       </c>
       <c r="B475">
-        <v>0.95</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>284.08333333333331</v>
+        <v>292.26666666666665</v>
       </c>
       <c r="B476">
-        <v>0.8</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>284.16666666666669</v>
+        <v>292.35000000000002</v>
       </c>
       <c r="B477">
-        <v>1.1666666666666667</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>284.2</v>
+        <v>292.36666666666667</v>
       </c>
       <c r="B478">
-        <v>0.75</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>284.39999999999998</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="B479">
-        <v>0.98333333333333328</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>284.63333333333333</v>
+        <v>293.41666666666669</v>
       </c>
       <c r="B480">
-        <v>0.21666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>284.85000000000002</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>285.14999999999998</v>
+        <v>296.26666666666665</v>
       </c>
       <c r="B482">
-        <v>0.78333333333333333</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>285.14999999999998</v>
+        <v>296.93333333333334</v>
       </c>
       <c r="B483">
-        <v>0.21666666666666667</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>285.43333333333334</v>
+        <v>297.88333333333333</v>
       </c>
       <c r="B484">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>285.46666666666664</v>
+        <v>299.06666666666666</v>
       </c>
       <c r="B485">
-        <v>1.0833333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>285.88333333333333</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="B486">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>286.01666666666665</v>
+        <v>300.46666666666664</v>
       </c>
       <c r="B487">
-        <v>0.65</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>286.21666666666664</v>
+        <v>301.2</v>
       </c>
       <c r="B488">
-        <v>0.46666666666666667</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>286.23333333333335</v>
+        <v>301.8</v>
       </c>
       <c r="B489">
-        <v>0.81666666666666665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>286.23333333333335</v>
+        <v>302.3</v>
       </c>
       <c r="B490">
-        <v>1.0666666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>287.35000000000002</v>
+        <v>303.23333333333335</v>
       </c>
       <c r="B491">
-        <v>1.2166666666666668</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>287.75</v>
+        <v>303.5</v>
       </c>
       <c r="B492">
-        <v>0.98333333333333328</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>288.05</v>
+        <v>304.31666666666666</v>
       </c>
       <c r="B493">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>288.18333333333334</v>
+        <v>304.55</v>
       </c>
       <c r="B494">
-        <v>0.83333333333333337</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>288.25</v>
+        <v>304.56666666666666</v>
       </c>
       <c r="B495">
-        <v>0.8666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>288.53333333333336</v>
+        <v>305.11666666666667</v>
       </c>
       <c r="B496">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>288.73333333333335</v>
+        <v>305.14999999999998</v>
       </c>
       <c r="B497">
-        <v>0.6333333333333333</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>288.89999999999998</v>
+        <v>305.88333333333333</v>
       </c>
       <c r="B498">
-        <v>1.1499999999999999</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>289.36666666666667</v>
+        <v>306.18333333333334</v>
       </c>
       <c r="B499">
-        <v>1.2333333333333334</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>289.73333333333335</v>
+        <v>307.45</v>
       </c>
       <c r="B500">
-        <v>0.71666666666666667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>290.38333333333333</v>
+        <v>307.76666666666665</v>
       </c>
       <c r="B501">
-        <v>1.4166666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>290.39999999999998</v>
+        <v>307.91666666666669</v>
       </c>
       <c r="B502">
-        <v>0.43333333333333335</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>290.96666666666664</v>
+        <v>309.13333333333333</v>
       </c>
       <c r="B503">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>291.31666666666666</v>
+        <v>309.3</v>
       </c>
       <c r="B504">
-        <v>1.2166666666666668</v>
+        <v>1.2833333333333332</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>291.71666666666664</v>
+        <v>309.75</v>
       </c>
       <c r="B505">
-        <v>1.0166666666666666</v>
+        <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>291.75</v>
+        <v>311.53333333333336</v>
       </c>
       <c r="B506">
-        <v>0.41666666666666669</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>291.83333333333331</v>
+        <v>311.76666666666665</v>
       </c>
       <c r="B507">
-        <v>0.83333333333333337</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>291.93333333333334</v>
+        <v>312.98333333333335</v>
       </c>
       <c r="B508">
-        <v>0.6166666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>292.26666666666665</v>
+        <v>315.83333333333331</v>
       </c>
       <c r="B509">
-        <v>0.43333333333333335</v>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>292.35000000000002</v>
+        <v>317.43333333333334</v>
       </c>
       <c r="B510">
-        <v>1.1000000000000001</v>
+        <v>1.5666666666666667</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>292.36666666666667</v>
+        <v>318.06666666666666</v>
       </c>
       <c r="B511">
-        <v>1.3166666666666667</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>292.66666666666669</v>
+        <v>318.86666666666667</v>
       </c>
       <c r="B512">
-        <v>0.68333333333333335</v>
+        <v>1.7166666666666668</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>293.41666666666669</v>
+        <v>319.64999999999998</v>
       </c>
       <c r="B513">
-        <v>6.6666666666666666E-2</v>
+        <v>1.7833333333333332</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>296.10000000000002</v>
+        <v>320.36666666666667</v>
       </c>
       <c r="B514">
-        <v>1.2333333333333334</v>
+        <v>1.8333333333333335</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>296.26666666666665</v>
+        <v>321</v>
       </c>
       <c r="B515">
-        <v>1.3166666666666667</v>
+        <v>1.7333333333333334</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>296.93333333333334</v>
+        <v>321.36666666666667</v>
       </c>
       <c r="B516">
-        <v>0.68333333333333335</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>297.88333333333333</v>
+        <v>321.43333333333334</v>
       </c>
       <c r="B517">
-        <v>0.7</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>299.06666666666666</v>
+        <v>323.7</v>
       </c>
       <c r="B518">
-        <v>0.83333333333333337</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>300.39999999999998</v>
+        <v>324.3</v>
       </c>
       <c r="B519">
-        <v>0.9</v>
+        <v>2.6833333333333336</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>300.46666666666664</v>
+        <v>327.28333333333336</v>
       </c>
       <c r="B520">
-        <v>0.73333333333333328</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>301.2</v>
+        <v>335.81666666666666</v>
       </c>
       <c r="B521">
-        <v>0.21666666666666667</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>301.8</v>
+        <v>335.83333333333331</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>302.3</v>
+        <v>337.7</v>
       </c>
       <c r="B523">
-        <v>0.78333333333333333</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>303.23333333333335</v>
+        <v>339.76666666666665</v>
       </c>
       <c r="B524">
-        <v>1.0833333333333333</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>303.5</v>
+        <v>341.48333333333335</v>
       </c>
       <c r="B525">
-        <v>0.11666666666666667</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>304.31666666666666</v>
+        <v>341.83333333333331</v>
       </c>
       <c r="B526">
-        <v>0.8</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>304.55</v>
+        <v>345.75</v>
       </c>
       <c r="B527">
-        <v>1.05</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>304.56666666666666</v>
+        <v>349.55</v>
       </c>
       <c r="B528">
-        <v>0.71666666666666667</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>305.11666666666667</v>
+        <v>351.35</v>
       </c>
       <c r="B529">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>305.14999999999998</v>
+        <v>351.85</v>
       </c>
       <c r="B530">
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>305.88333333333333</v>
+        <v>352.1</v>
       </c>
       <c r="B531">
-        <v>1.1666666666666667</v>
+        <v>2.7833333333333332</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>306.18333333333334</v>
+        <v>352.53333333333336</v>
       </c>
       <c r="B532">
-        <v>1.0833333333333333</v>
+        <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>307.45</v>
+        <v>353.73333333333335</v>
       </c>
       <c r="B533">
-        <v>0.95</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>307.76666666666665</v>
+        <v>354.28333333333336</v>
       </c>
       <c r="B534">
-        <v>1.3333333333333333</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>307.91666666666669</v>
+        <v>355.35</v>
       </c>
       <c r="B535">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>309.13333333333333</v>
+        <v>356.66666666666669</v>
       </c>
       <c r="B536">
-        <v>1.75</v>
+        <v>1.7666666666666666</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>309.3</v>
+        <v>358.65</v>
       </c>
       <c r="B537">
-        <v>1.2833333333333332</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A538">
-        <v>309.75</v>
-      </c>
-      <c r="B538">
-        <v>1.8833333333333333</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539">
-        <v>311.53333333333336</v>
-      </c>
-      <c r="B539">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A540">
-        <v>311.76666666666665</v>
-      </c>
-      <c r="B540">
-        <v>2.0333333333333332</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A541">
-        <v>312.98333333333335</v>
-      </c>
-      <c r="B541">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A542">
-        <v>315.83333333333331</v>
-      </c>
-      <c r="B542">
-        <v>2.1333333333333333</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543">
-        <v>317.43333333333334</v>
-      </c>
-      <c r="B543">
-        <v>1.5666666666666667</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544">
-        <v>318.06666666666666</v>
-      </c>
-      <c r="B544">
-        <v>1.6666666666666665</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A545">
-        <v>318.86666666666667</v>
-      </c>
-      <c r="B545">
-        <v>1.7166666666666668</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A546">
-        <v>319.64999999999998</v>
-      </c>
-      <c r="B546">
-        <v>1.7833333333333332</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A547">
-        <v>320.36666666666667</v>
-      </c>
-      <c r="B547">
-        <v>1.8333333333333335</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A548">
-        <v>321</v>
-      </c>
-      <c r="B548">
-        <v>1.7333333333333334</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A549">
-        <v>321.36666666666667</v>
-      </c>
-      <c r="B549">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A550">
-        <v>321.43333333333334</v>
-      </c>
-      <c r="B550">
-        <v>2.7166666666666668</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551">
-        <v>323.7</v>
-      </c>
-      <c r="B551">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552">
-        <v>324.3</v>
-      </c>
-      <c r="B552">
-        <v>2.6833333333333336</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A553">
-        <v>327.28333333333336</v>
-      </c>
-      <c r="B553">
-        <v>2.7166666666666668</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A554">
-        <v>335.81666666666666</v>
-      </c>
-      <c r="B554">
-        <v>3.0833333333333335</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A555">
-        <v>335.83333333333331</v>
-      </c>
-      <c r="B555">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A556">
-        <v>337.7</v>
-      </c>
-      <c r="B556">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A557">
-        <v>339.76666666666665</v>
-      </c>
-      <c r="B557">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A558">
-        <v>341.48333333333335</v>
-      </c>
-      <c r="B558">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A559">
-        <v>341.83333333333331</v>
-      </c>
-      <c r="B559">
-        <v>1.0666666666666667</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A560">
-        <v>345.75</v>
-      </c>
-      <c r="B560">
-        <v>3.0333333333333332</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561">
-        <v>349.55</v>
-      </c>
-      <c r="B561">
-        <v>2.7666666666666666</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562">
-        <v>351.35</v>
-      </c>
-      <c r="B562">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A563">
-        <v>351.85</v>
-      </c>
-      <c r="B563">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A564">
-        <v>352.1</v>
-      </c>
-      <c r="B564">
-        <v>2.7833333333333332</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A565">
-        <v>352.53333333333336</v>
-      </c>
-      <c r="B565">
-        <v>2.5333333333333332</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A566">
-        <v>353.73333333333335</v>
-      </c>
-      <c r="B566">
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A567">
-        <v>354.28333333333336</v>
-      </c>
-      <c r="B567">
-        <v>0.98333333333333328</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A568">
-        <v>355.35</v>
-      </c>
-      <c r="B568">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A569">
-        <v>356.66666666666669</v>
-      </c>
-      <c r="B569">
-        <v>1.7666666666666666</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570">
-        <v>358.65</v>
-      </c>
-      <c r="B570">
         <v>2.8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B577">
-    <sortCondition ref="A2:A577"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B544">
+    <sortCondition ref="A2:A544"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
+++ b/myDjEnv/setup/polls/elevations/dvorSVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\django_2704\myDjEnv\setup\polls\elevations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6AD39-D587-400F-B0FB-2E300B3948C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A2B91-6634-4C68-90D0-0A6C77EB6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{F8D1EF22-B66F-4179-ACF7-1D1A6D23B096}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760A265-C1D5-46A3-89D8-E18FBAF869D3}">
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:XFD457"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="O531" sqref="O531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,191 +401,191 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.78333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2.56666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3.5833333333333335</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="B3">
-        <v>1.2166666666666668</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3.9666666666666668</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="B4">
-        <v>2.4166666666666665</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.8</v>
+        <v>3.9666666666666668</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>2.4166666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="B6">
-        <v>1.2833333333333332</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="B7">
-        <v>1.3333333333333333</v>
+        <v>1.2833333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9.3333333333333339</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B9">
-        <v>2.9333333333333336</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9.3666666666666671</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="B10">
-        <v>1.3833333333333333</v>
+        <v>2.9333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9.6</v>
+        <v>9.3666666666666671</v>
       </c>
       <c r="B11">
-        <v>0.98333333333333328</v>
+        <v>1.3833333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10.55</v>
+        <v>9.6</v>
       </c>
       <c r="B12">
-        <v>1.8833333333333333</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11.183333333333334</v>
+        <v>10.55</v>
       </c>
       <c r="B13">
-        <v>1.9166666666666665</v>
+        <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15.433333333333334</v>
+        <v>11.183333333333334</v>
       </c>
       <c r="B14">
-        <v>0.93333333333333335</v>
+        <v>1.9166666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>19.633333333333333</v>
+        <v>15.433333333333334</v>
       </c>
       <c r="B15">
-        <v>2.5833333333333335</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>19.850000000000001</v>
+        <v>19.633333333333333</v>
       </c>
       <c r="B16">
-        <v>2.35</v>
+        <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>22.9</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="B17">
-        <v>2.2166666666666668</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>23.15</v>
+        <v>22.9</v>
       </c>
       <c r="B18">
-        <v>0.76666666666666672</v>
+        <v>2.2166666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>25.883333333333333</v>
+        <v>23.15</v>
       </c>
       <c r="B19">
-        <v>0.51666666666666672</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>26.25</v>
+        <v>25.883333333333333</v>
       </c>
       <c r="B20">
-        <v>2.2833333333333332</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>27.016666666666666</v>
+        <v>26.25</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>2.2833333333333332</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>27.4</v>
+        <v>27.016666666666666</v>
       </c>
       <c r="B22">
-        <v>2.3166666666666664</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27.75</v>
+        <v>27.4</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2.3166666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28.483333333333334</v>
+        <v>27.75</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>29.316666666666666</v>
+        <v>28.483333333333334</v>
       </c>
       <c r="B25">
         <v>1.05</v>
@@ -593,223 +593,223 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30.216666666666665</v>
+        <v>29.316666666666666</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>30.7</v>
+        <v>30.216666666666665</v>
       </c>
       <c r="B27">
-        <v>1.0333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>31.766666666666666</v>
+        <v>30.7</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>32.18333333333333</v>
+        <v>31.766666666666666</v>
       </c>
       <c r="B29">
-        <v>1.0166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>32.333333333333336</v>
+        <v>32.18333333333333</v>
       </c>
       <c r="B30">
-        <v>1.9666666666666668</v>
+        <v>1.0166666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>34.266666666666666</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="B31">
-        <v>2.0666666666666669</v>
+        <v>1.9666666666666668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>35.366666666666667</v>
+        <v>34.266666666666666</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>2.0666666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>37.9</v>
+        <v>35.366666666666667</v>
       </c>
       <c r="B33">
-        <v>1.4333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>38.383333333333333</v>
+        <v>37.9</v>
       </c>
       <c r="B34">
-        <v>0.8833333333333333</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>44.55</v>
+        <v>38.383333333333333</v>
       </c>
       <c r="B35">
-        <v>1.5</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>44.75</v>
+        <v>44.55</v>
       </c>
       <c r="B36">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>46.633333333333333</v>
+        <v>44.75</v>
       </c>
       <c r="B37">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>49.833333333333336</v>
+        <v>46.633333333333333</v>
       </c>
       <c r="B38">
-        <v>2.0499999999999998</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>53.18333333333333</v>
+        <v>49.833333333333336</v>
       </c>
       <c r="B39">
-        <v>2.1666666666666665</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>53.3</v>
+        <v>53.18333333333333</v>
       </c>
       <c r="B40">
-        <v>2.1833333333333331</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>58.983333333333334</v>
+        <v>53.3</v>
       </c>
       <c r="B41">
-        <v>2.4333333333333336</v>
+        <v>2.1833333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>59.31666666666667</v>
+        <v>58.983333333333334</v>
       </c>
       <c r="B42">
-        <v>2.2999999999999998</v>
+        <v>2.4333333333333336</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>62.05</v>
+        <v>59.31666666666667</v>
       </c>
       <c r="B43">
-        <v>2.4833333333333334</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>63.866666666666667</v>
+        <v>62.05</v>
       </c>
       <c r="B44">
-        <v>2.1666666666666665</v>
+        <v>2.4833333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>67.316666666666663</v>
+        <v>63.866666666666667</v>
       </c>
       <c r="B45">
-        <v>1.4333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>69.216666666666669</v>
+        <v>67.316666666666663</v>
       </c>
       <c r="B46">
-        <v>2.7166666666666668</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>71</v>
+        <v>69.216666666666669</v>
       </c>
       <c r="B47">
-        <v>1.35</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>71.45</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>2.65</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>73.86666666666666</v>
+        <v>71.45</v>
       </c>
       <c r="B49">
-        <v>0.1</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>73.95</v>
+        <v>73.86666666666666</v>
       </c>
       <c r="B50">
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>74.583333333333329</v>
+        <v>73.95</v>
       </c>
       <c r="B51">
-        <v>1.3833333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>77.400000000000006</v>
+        <v>74.583333333333329</v>
       </c>
       <c r="B52">
-        <v>0.2</v>
+        <v>1.3833333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>78.016666666666666</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="B53">
         <v>0.2</v>
@@ -817,207 +817,207 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>79.416666666666671</v>
+        <v>78.016666666666666</v>
       </c>
       <c r="B54">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>80.916666666666671</v>
+        <v>79.416666666666671</v>
       </c>
       <c r="B55">
-        <v>0.73333333333333328</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>81.983333333333334</v>
+        <v>80.916666666666671</v>
       </c>
       <c r="B56">
-        <v>2.8166666666666664</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>82.75</v>
+        <v>81.983333333333334</v>
       </c>
       <c r="B57">
-        <v>0.41666666666666669</v>
+        <v>2.8166666666666664</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>83.983333333333334</v>
+        <v>82.75</v>
       </c>
       <c r="B58">
-        <v>2.4833333333333334</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>95.416666666666671</v>
+        <v>83.983333333333334</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2.4833333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>99.083333333333329</v>
+        <v>95.416666666666671</v>
       </c>
       <c r="B60">
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>101.63333333333334</v>
+        <v>99.083333333333329</v>
       </c>
       <c r="B61">
-        <v>0.8666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>101.93333333333334</v>
+        <v>101.63333333333334</v>
       </c>
       <c r="B62">
-        <v>1.5666666666666667</v>
+        <v>0.86666666666666703</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>109.41666666666667</v>
+        <v>101.93333333333334</v>
       </c>
       <c r="B63">
-        <v>1.8833333333333333</v>
+        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>109.46666666666667</v>
+        <v>109.41666666666667</v>
       </c>
       <c r="B64">
-        <v>3.3833333333333333</v>
+        <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>114.41666666666667</v>
+        <v>109.46666666666667</v>
       </c>
       <c r="B65">
-        <v>1.4833333333333334</v>
+        <v>3.3833333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>117.05</v>
+        <v>114.41666666666667</v>
       </c>
       <c r="B66">
-        <v>1.2833333333333332</v>
+        <v>1.4833333333333334</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>119.01666666666667</v>
+        <v>117.05</v>
       </c>
       <c r="B67">
-        <v>3.0166666666666666</v>
+        <v>1.2833333333333332</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>122.68333333333334</v>
+        <v>119.01666666666667</v>
       </c>
       <c r="B68">
-        <v>3.4833333333333334</v>
+        <v>3.0166666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>127.95</v>
+        <v>122.68333333333334</v>
       </c>
       <c r="B69">
-        <v>2.4833333333333334</v>
+        <v>3.4833333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>138.53333333333333</v>
+        <v>127.95</v>
       </c>
       <c r="B70">
-        <v>2.5833333333333335</v>
+        <v>2.4833333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>145.1</v>
+        <v>138.53333333333333</v>
       </c>
       <c r="B71">
-        <v>2.1666666666666665</v>
+        <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>146.26666666666668</v>
+        <v>145.1</v>
       </c>
       <c r="B72">
-        <v>1.75</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>149.13333333333333</v>
+        <v>146.26666666666668</v>
       </c>
       <c r="B73">
-        <v>0.46666666666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>152.83333333333334</v>
+        <v>149.13333333333333</v>
       </c>
       <c r="B74">
-        <v>1.6666666666666666E-2</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>153.44999999999999</v>
+        <v>152.83333333333334</v>
       </c>
       <c r="B75">
-        <v>2.1333333333333333</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>153.63333333333333</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="B76">
-        <v>0.38333333333333336</v>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>155.80000000000001</v>
+        <v>153.63333333333333</v>
       </c>
       <c r="B77">
-        <v>0.43333333333333335</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>168.81666666666666</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B78">
-        <v>0.48333333333333334</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>169.7</v>
+        <v>168.81666666666666</v>
       </c>
       <c r="B79">
         <v>0.48333333333333334</v>
@@ -1025,119 +1025,119 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>172.28333333333333</v>
+        <v>169.7</v>
       </c>
       <c r="B80">
-        <v>2.0333333333333332</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>178.15</v>
+        <v>172.28333333333333</v>
       </c>
       <c r="B81">
-        <v>2.4833333333333334</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>184.01666666666668</v>
+        <v>178.15</v>
       </c>
       <c r="B82">
-        <v>1.7</v>
+        <v>2.4833333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>184.16666666666666</v>
+        <v>184.01666666666668</v>
       </c>
       <c r="B83">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>184.81666666666666</v>
+        <v>184.16666666666666</v>
       </c>
       <c r="B84">
-        <v>1.8833333333333333</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>186.01666666666668</v>
+        <v>184.81666666666666</v>
       </c>
       <c r="B85">
-        <v>1.0666666666666667</v>
+        <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>191.63333333333333</v>
+        <v>186.01666666666668</v>
       </c>
       <c r="B86">
-        <v>0.85</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>199.08333333333334</v>
+        <v>191.63333333333333</v>
       </c>
       <c r="B87">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>201.53333333333333</v>
+        <v>199.08333333333334</v>
       </c>
       <c r="B88">
-        <v>0.93333333333333335</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>202.81666666666666</v>
+        <v>201.53333333333333</v>
       </c>
       <c r="B89">
-        <v>1.1000000000000001</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>202.9</v>
+        <v>202.81666666666666</v>
       </c>
       <c r="B90">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>203.98333333333332</v>
+        <v>202.9</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>204.91666666666666</v>
+        <v>203.98333333333332</v>
       </c>
       <c r="B92">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>204.95</v>
+        <v>204.91666666666666</v>
       </c>
       <c r="B93">
-        <v>0.8833333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>206.91666666666666</v>
+        <v>204.95</v>
       </c>
       <c r="B94">
         <v>0.8833333333333333</v>
@@ -1145,231 +1145,231 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>208.61666666666667</v>
+        <v>206.91666666666666</v>
       </c>
       <c r="B95">
-        <v>0.41666666666666669</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>212.93333333333334</v>
+        <v>208.61666666666667</v>
       </c>
       <c r="B96">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>213.81666666666666</v>
+        <v>212.93333333333334</v>
       </c>
       <c r="B97">
-        <v>0.71666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>214.6</v>
+        <v>213.81666666666666</v>
       </c>
       <c r="B98">
-        <v>0.55000000000000004</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>217.06666666666666</v>
+        <v>214.6</v>
       </c>
       <c r="B99">
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>217.08333333333334</v>
+        <v>217.06666666666666</v>
       </c>
       <c r="B100">
-        <v>0.35</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>217.2</v>
+        <v>217.08333333333334</v>
       </c>
       <c r="B101">
-        <v>1.1833333333333333</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>217.41666666666666</v>
+        <v>217.2</v>
       </c>
       <c r="B102">
-        <v>0.58333333333333337</v>
+        <v>1.1833333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>218.85</v>
+        <v>217.41666666666666</v>
       </c>
       <c r="B103">
-        <v>0.21666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>218.98333333333332</v>
+        <v>218.85</v>
       </c>
       <c r="B104">
-        <v>0.58333333333333337</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>219.93333333333334</v>
+        <v>218.98333333333332</v>
       </c>
       <c r="B105">
-        <v>0.55000000000000004</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>220.93333333333334</v>
+        <v>219.93333333333334</v>
       </c>
       <c r="B106">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>220.96666666666667</v>
+        <v>220.93333333333334</v>
       </c>
       <c r="B107">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>221.66666666666666</v>
+        <v>220.96666666666667</v>
       </c>
       <c r="B108">
-        <v>0.48333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>222.16666666666666</v>
+        <v>221.66666666666666</v>
       </c>
       <c r="B109">
-        <v>0.45</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>222.7</v>
+        <v>222.16666666666666</v>
       </c>
       <c r="B110">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>223.06666666666666</v>
+        <v>222.7</v>
       </c>
       <c r="B111">
-        <v>0.38333333333333336</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>226.56666666666666</v>
+        <v>223.06666666666666</v>
       </c>
       <c r="B112">
-        <v>0.31666666666666665</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>226.88333333333333</v>
+        <v>226.56666666666666</v>
       </c>
       <c r="B113">
-        <v>0.3</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>227.05</v>
+        <v>226.88333333333333</v>
       </c>
       <c r="B114">
-        <v>0.26666666666666666</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>227.56666666666666</v>
+        <v>227.05</v>
       </c>
       <c r="B115">
-        <v>6.6666666666666666E-2</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>227.96666666666667</v>
+        <v>227.56666666666666</v>
       </c>
       <c r="B116">
-        <v>0.25</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>227.98333333333332</v>
+        <v>227.96666666666667</v>
       </c>
       <c r="B117">
-        <v>1.1166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>228.21666666666667</v>
+        <v>227.98333333333332</v>
       </c>
       <c r="B118">
-        <v>0.81666666666666665</v>
+        <v>1.1166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>228.26666666666668</v>
+        <v>228.21666666666667</v>
       </c>
       <c r="B119">
-        <v>0.1</v>
+        <v>0.81666666666666665</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>228.58333333333334</v>
+        <v>228.26666666666668</v>
       </c>
       <c r="B120">
-        <v>0.36666666666666664</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>228.95</v>
+        <v>228.58333333333334</v>
       </c>
       <c r="B121">
-        <v>1.7</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>229.03333333333333</v>
+        <v>228.95</v>
       </c>
       <c r="B122">
-        <v>0.46666666666666667</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>229.43333333333334</v>
+        <v>229.03333333333333</v>
       </c>
       <c r="B123">
         <v>0.46666666666666667</v>
@@ -1377,63 +1377,63 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>229.56666666666666</v>
+        <v>229.43333333333334</v>
       </c>
       <c r="B124">
-        <v>0.31666666666666665</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>230.2</v>
+        <v>229.56666666666666</v>
       </c>
       <c r="B125">
-        <v>0.11666666666666667</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>230.36666666666667</v>
+        <v>230.2</v>
       </c>
       <c r="B126">
-        <v>0.13333333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>230.58333333333334</v>
+        <v>230.36666666666667</v>
       </c>
       <c r="B127">
-        <v>1.5666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>230.76666666666668</v>
+        <v>230.58333333333334</v>
       </c>
       <c r="B128">
-        <v>0.41666666666666669</v>
+        <v>1.5666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>231.31666666666666</v>
+        <v>230.76666666666668</v>
       </c>
       <c r="B129">
-        <v>0.11666666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>231.61666666666667</v>
+        <v>231.31666666666666</v>
       </c>
       <c r="B130">
-        <v>0.16666666666666666</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>231.7</v>
+        <v>231.61666666666667</v>
       </c>
       <c r="B131">
         <v>0.16666666666666666</v>
@@ -1441,95 +1441,95 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>231.78333333333333</v>
+        <v>231.7</v>
       </c>
       <c r="B132">
-        <v>3.3333333333333333E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>231.9</v>
+        <v>231.78333333333333</v>
       </c>
       <c r="B133">
-        <v>1.4833333333333334</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>232.01666666666668</v>
+        <v>231.9</v>
       </c>
       <c r="B134">
-        <v>0.11666666666666667</v>
+        <v>1.4833333333333334</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>232.11666666666667</v>
+        <v>232.01666666666668</v>
       </c>
       <c r="B135">
-        <v>0.05</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>232.31666666666666</v>
+        <v>232.11666666666667</v>
       </c>
       <c r="B136">
-        <v>0.46666666666666667</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>232.33333333333334</v>
+        <v>232.31666666666666</v>
       </c>
       <c r="B137">
-        <v>0.11666666666666667</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>232.46666666666667</v>
+        <v>232.33333333333334</v>
       </c>
       <c r="B138">
-        <v>8.3333333333333329E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>232.53333333333333</v>
+        <v>232.46666666666667</v>
       </c>
       <c r="B139">
-        <v>3.3333333333333333E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>232.63333333333333</v>
+        <v>232.53333333333333</v>
       </c>
       <c r="B140">
-        <v>0.33333333333333331</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>232.66666666666666</v>
+        <v>232.63333333333333</v>
       </c>
       <c r="B141">
-        <v>0.46666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>232.8</v>
+        <v>232.66666666666666</v>
       </c>
       <c r="B142">
-        <v>6.6666666666666666E-2</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>233.2</v>
+        <v>232.8</v>
       </c>
       <c r="B143">
         <v>6.6666666666666666E-2</v>
@@ -1537,23 +1537,23 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>233.36666666666667</v>
+        <v>233.2</v>
       </c>
       <c r="B144">
-        <v>0.31666666666666665</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>233.96666666666667</v>
+        <v>233.36666666666667</v>
       </c>
       <c r="B145">
-        <v>0.4</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>234.3</v>
+        <v>233.96666666666667</v>
       </c>
       <c r="B146">
         <v>0.4</v>
@@ -1561,151 +1561,151 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>234.56666666666666</v>
+        <v>234.3</v>
       </c>
       <c r="B147">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>235.08333333333334</v>
+        <v>234.56666666666666</v>
       </c>
       <c r="B148">
-        <v>0.1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>235.13333333333333</v>
+        <v>235.08333333333334</v>
       </c>
       <c r="B149">
-        <v>0.71666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>235.46666666666667</v>
+        <v>235.13333333333333</v>
       </c>
       <c r="B150">
-        <v>0.3</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>235.81666666666666</v>
+        <v>235.46666666666667</v>
       </c>
       <c r="B151">
-        <v>0.13333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>236.2</v>
+        <v>235.81666666666666</v>
       </c>
       <c r="B152">
-        <v>8.3333333333333329E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>236.55</v>
+        <v>236.2</v>
       </c>
       <c r="B153">
-        <v>0.66666666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>236.73333333333332</v>
+        <v>236.55</v>
       </c>
       <c r="B154">
-        <v>0.1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>237.5</v>
+        <v>236.73333333333332</v>
       </c>
       <c r="B155">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>237.63333333333333</v>
+        <v>237.5</v>
       </c>
       <c r="B156">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>238.15</v>
+        <v>237.63333333333333</v>
       </c>
       <c r="B157">
-        <v>0.76666666666666672</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>238.16666666666666</v>
+        <v>238.15</v>
       </c>
       <c r="B158">
-        <v>0.6166666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>238.21666666666667</v>
+        <v>238.16666666666666</v>
       </c>
       <c r="B159">
-        <v>0.15</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>238.31666666666666</v>
+        <v>238.21666666666667</v>
       </c>
       <c r="B160">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>239</v>
+        <v>238.31666666666666</v>
       </c>
       <c r="B161">
-        <v>0.6166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>239.35</v>
+        <v>239</v>
       </c>
       <c r="B162">
-        <v>0.55000000000000004</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>239.36666666666667</v>
+        <v>239.35</v>
       </c>
       <c r="B163">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>239.6</v>
+        <v>239.36666666666667</v>
       </c>
       <c r="B164">
-        <v>0.21666666666666667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>239.76666666666668</v>
+        <v>239.6</v>
       </c>
       <c r="B165">
         <v>0.21666666666666667</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>239.96666666666667</v>
+        <v>239.76666666666668</v>
       </c>
       <c r="B166">
         <v>0.21666666666666667</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>240.06666666666666</v>
+        <v>239.96666666666667</v>
       </c>
       <c r="B167">
         <v>0.21666666666666667</v>
@@ -1729,223 +1729,223 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>240.36666666666667</v>
+        <v>240.06666666666666</v>
       </c>
       <c r="B168">
-        <v>6.6666666666666666E-2</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>240.58333333333334</v>
+        <v>240.36666666666667</v>
       </c>
       <c r="B169">
-        <v>0.13333333333333333</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>240.61666666666667</v>
+        <v>240.58333333333334</v>
       </c>
       <c r="B170">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>240.73333333333332</v>
+        <v>240.61666666666667</v>
       </c>
       <c r="B171">
-        <v>0.05</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>240.75</v>
+        <v>240.73333333333332</v>
       </c>
       <c r="B172">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>240.8</v>
+        <v>240.75</v>
       </c>
       <c r="B173">
-        <v>0.21666666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>241.06666666666666</v>
+        <v>240.8</v>
       </c>
       <c r="B174">
-        <v>0.45</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>241.08333333333334</v>
+        <v>241.06666666666666</v>
       </c>
       <c r="B175">
-        <v>0.21666666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>241.65</v>
+        <v>241.08333333333334</v>
       </c>
       <c r="B176">
-        <v>0.6333333333333333</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>241.86666666666667</v>
+        <v>241.65</v>
       </c>
       <c r="B177">
-        <v>0.16666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>242</v>
+        <v>241.86666666666667</v>
       </c>
       <c r="B178">
-        <v>0.05</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>242.11666666666667</v>
+        <v>242</v>
       </c>
       <c r="B179">
-        <v>0.23333333333333334</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>242.16666666666666</v>
+        <v>242.11666666666667</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>242.25</v>
+        <v>242.16666666666666</v>
       </c>
       <c r="B181">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>242.4</v>
+        <v>242.25</v>
       </c>
       <c r="B182">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>242.46666666666667</v>
+        <v>242.4</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>242.5</v>
+        <v>242.46666666666667</v>
       </c>
       <c r="B184">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>242.55</v>
+        <v>242.5</v>
       </c>
       <c r="B185">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>242.56666666666666</v>
+        <v>242.55</v>
       </c>
       <c r="B186">
-        <v>0.31666666666666665</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>242.68333333333334</v>
+        <v>242.56666666666666</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>242.73333333333332</v>
+        <v>242.68333333333334</v>
       </c>
       <c r="B188">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>242.78333333333333</v>
+        <v>242.73333333333332</v>
       </c>
       <c r="B189">
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>242.86666666666667</v>
+        <v>242.78333333333333</v>
       </c>
       <c r="B190">
-        <v>0.11666666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>242.9</v>
+        <v>242.86666666666667</v>
       </c>
       <c r="B191">
-        <v>0.56666666666666665</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="B192">
-        <v>0.53333333333333333</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>243.01666666666668</v>
+        <v>243</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>243.05</v>
+        <v>243.01666666666668</v>
       </c>
       <c r="B194">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>243.08333333333334</v>
+        <v>243.05</v>
       </c>
       <c r="B195">
         <v>0.11666666666666667</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>243.11666666666667</v>
+        <v>243.08333333333334</v>
       </c>
       <c r="B196">
         <v>0.11666666666666667</v>
@@ -1961,191 +1961,191 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>243.25</v>
+        <v>243.11666666666667</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>243.28333333333333</v>
+        <v>243.25</v>
       </c>
       <c r="B198">
-        <v>0.53333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>243.3</v>
+        <v>243.28333333333333</v>
       </c>
       <c r="B199">
-        <v>1.6666666666666666E-2</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>243.38333333333333</v>
+        <v>243.3</v>
       </c>
       <c r="B200">
-        <v>0.58333333333333337</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>243.48333333333332</v>
+        <v>243.38333333333333</v>
       </c>
       <c r="B201">
-        <v>0.53333333333333333</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>243.7</v>
+        <v>243.48333333333332</v>
       </c>
       <c r="B202">
-        <v>0.56666666666666665</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>243.78333333333333</v>
+        <v>243.7</v>
       </c>
       <c r="B203">
-        <v>6.6666666666666666E-2</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>243.86666666666667</v>
+        <v>243.78333333333333</v>
       </c>
       <c r="B204">
-        <v>0.18333333333333332</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>244.1</v>
+        <v>243.86666666666667</v>
       </c>
       <c r="B205">
-        <v>0.11666666666666667</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>244.23333333333332</v>
+        <v>244.1</v>
       </c>
       <c r="B206">
-        <v>0.2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>244.28333333333333</v>
+        <v>244.23333333333332</v>
       </c>
       <c r="B207">
-        <v>0.13333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>244.33333333333334</v>
+        <v>244.28333333333333</v>
       </c>
       <c r="B208">
-        <v>0.93333333333333335</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>244.36666666666667</v>
+        <v>244.33333333333334</v>
       </c>
       <c r="B209">
-        <v>0.55000000000000004</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>244.53333333333333</v>
+        <v>244.36666666666667</v>
       </c>
       <c r="B210">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>244.66666666666666</v>
+        <v>244.53333333333333</v>
       </c>
       <c r="B211">
-        <v>0.53333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>244.8</v>
+        <v>244.66666666666666</v>
       </c>
       <c r="B212">
-        <v>0.13333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>244.86666666666667</v>
+        <v>244.8</v>
       </c>
       <c r="B213">
-        <v>0.6333333333333333</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>245.15</v>
+        <v>244.86666666666667</v>
       </c>
       <c r="B214">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>245.58333333333334</v>
+        <v>245.15</v>
       </c>
       <c r="B215">
-        <v>0.13333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>245.78333333333333</v>
+        <v>245.58333333333334</v>
       </c>
       <c r="B216">
-        <v>0.15</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>245.96666666666667</v>
+        <v>245.78333333333333</v>
       </c>
       <c r="B217">
-        <v>0.21666666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>246.33333333333334</v>
+        <v>245.96666666666667</v>
       </c>
       <c r="B218">
-        <v>0.16666666666666666</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>246.66666666666666</v>
+        <v>246.33333333333334</v>
       </c>
       <c r="B219">
-        <v>0.15</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>246.76666666666668</v>
+        <v>246.66666666666666</v>
       </c>
       <c r="B220">
         <v>0.15</v>
@@ -2153,39 +2153,39 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>247.13333333333333</v>
+        <v>246.76666666666668</v>
       </c>
       <c r="B221">
-        <v>0.18333333333333332</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>247.65</v>
+        <v>247.13333333333333</v>
       </c>
       <c r="B222">
-        <v>0.16666666666666666</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>247.68333333333334</v>
+        <v>247.65</v>
       </c>
       <c r="B223">
-        <v>0.11666666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>248.05</v>
+        <v>247.68333333333334</v>
       </c>
       <c r="B224">
-        <v>0.2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>248.36666666666667</v>
+        <v>248.05</v>
       </c>
       <c r="B225">
         <v>0.2</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>248.38333333333333</v>
+        <v>248.36666666666667</v>
       </c>
       <c r="B226">
         <v>0.2</v>
@@ -2201,63 +2201,63 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>248.65</v>
+        <v>248.38333333333333</v>
       </c>
       <c r="B227">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>248.75</v>
+        <v>248.65</v>
       </c>
       <c r="B228">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>248.76666666666668</v>
+        <v>248.75</v>
       </c>
       <c r="B229">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>248.85</v>
+        <v>248.76666666666668</v>
       </c>
       <c r="B230">
-        <v>0.18333333333333332</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>248.96666666666667</v>
+        <v>248.85</v>
       </c>
       <c r="B231">
-        <v>1.6666666666666666E-2</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>249.06666666666666</v>
+        <v>248.96666666666667</v>
       </c>
       <c r="B232">
-        <v>0.18333333333333332</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>249.11666666666667</v>
+        <v>249.06666666666666</v>
       </c>
       <c r="B233">
-        <v>0.2</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>249.46666666666667</v>
+        <v>249.11666666666667</v>
       </c>
       <c r="B234">
         <v>0.2</v>
@@ -2265,47 +2265,47 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>250</v>
+        <v>249.46666666666667</v>
       </c>
       <c r="B235">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>250.53333333333333</v>
+        <v>250</v>
       </c>
       <c r="B236">
-        <v>0.16666666666666666</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>251.16666666666666</v>
+        <v>250.53333333333333</v>
       </c>
       <c r="B237">
-        <v>3.3333333333333333E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>251.5</v>
+        <v>251.16666666666666</v>
       </c>
       <c r="B238">
-        <v>0.15</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>251.55</v>
+        <v>251.5</v>
       </c>
       <c r="B239">
-        <v>3.3333333333333333E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>251.65</v>
+        <v>251.55</v>
       </c>
       <c r="B240">
         <v>3.3333333333333333E-2</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>252.23333333333332</v>
+        <v>251.65</v>
       </c>
       <c r="B241">
         <v>3.3333333333333333E-2</v>
@@ -2321,23 +2321,23 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>252.56666666666666</v>
+        <v>252.23333333333332</v>
       </c>
       <c r="B242">
-        <v>0.15</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>252.86666666666667</v>
+        <v>252.56666666666666</v>
       </c>
       <c r="B243">
-        <v>3.3333333333333333E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>253.08333333333334</v>
+        <v>252.86666666666667</v>
       </c>
       <c r="B244">
         <v>3.3333333333333333E-2</v>
@@ -2345,79 +2345,79 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>254.56666666666666</v>
+        <v>253.08333333333334</v>
       </c>
       <c r="B245">
-        <v>0.11666666666666667</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>255.15</v>
+        <v>254.56666666666666</v>
       </c>
       <c r="B246">
-        <v>0.15</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>255.51666666666668</v>
+        <v>255.15</v>
       </c>
       <c r="B247">
-        <v>0.16666666666666666</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>255.68333333333334</v>
+        <v>255.51666666666668</v>
       </c>
       <c r="B248">
-        <v>1.6666666666666666E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>255.91666666666666</v>
+        <v>255.68333333333334</v>
       </c>
       <c r="B249">
-        <v>0.2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>255.95</v>
+        <v>255.91666666666666</v>
       </c>
       <c r="B250">
-        <v>0.18333333333333332</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>256.10000000000002</v>
+        <v>255.95</v>
       </c>
       <c r="B251">
-        <v>0.1</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>256.11666666666667</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="B252">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>256.18333333333334</v>
+        <v>256.11666666666667</v>
       </c>
       <c r="B253">
-        <v>0.15</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>256.2</v>
+        <v>256.18333333333334</v>
       </c>
       <c r="B254">
         <v>0.15</v>
@@ -2425,39 +2425,39 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>256.26666666666665</v>
+        <v>256.2</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>256.28333333333336</v>
+        <v>256.26666666666665</v>
       </c>
       <c r="B256">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>256.3</v>
+        <v>256.28333333333336</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>256.39999999999998</v>
+        <v>256.3</v>
       </c>
       <c r="B258">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>256.64999999999998</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="B259">
         <v>1.6666666666666666E-2</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>256.71666666666664</v>
+        <v>256.64999999999998</v>
       </c>
       <c r="B260">
         <v>1.6666666666666666E-2</v>
@@ -2473,23 +2473,23 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>256.81666666666666</v>
+        <v>256.71666666666664</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>256.83333333333331</v>
+        <v>256.81666666666666</v>
       </c>
       <c r="B262">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>256.86666666666667</v>
+        <v>256.83333333333331</v>
       </c>
       <c r="B263">
         <v>1.6666666666666666E-2</v>
@@ -2497,15 +2497,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>256.91666666666669</v>
+        <v>256.86666666666667</v>
       </c>
       <c r="B264">
-        <v>6.6666666666666666E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>256.93333333333334</v>
+        <v>256.91666666666669</v>
       </c>
       <c r="B265">
         <v>6.6666666666666666E-2</v>
@@ -2513,79 +2513,79 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>257.01666666666665</v>
+        <v>256.93333333333334</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>257.21666666666664</v>
+        <v>257.01666666666665</v>
       </c>
       <c r="B267">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>257.23333333333335</v>
+        <v>257.21666666666664</v>
       </c>
       <c r="B268">
-        <v>6.6666666666666666E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>257.26666666666665</v>
+        <v>257.23333333333335</v>
       </c>
       <c r="B269">
-        <v>0.05</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>257.3</v>
+        <v>257.26666666666665</v>
       </c>
       <c r="B270">
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>257.33333333333331</v>
+        <v>257.3</v>
       </c>
       <c r="B271">
-        <v>0.15</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>257.35000000000002</v>
+        <v>257.33333333333331</v>
       </c>
       <c r="B272">
-        <v>1.6666666666666666E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>257.36666666666667</v>
+        <v>257.35000000000002</v>
       </c>
       <c r="B273">
-        <v>0.13333333333333333</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>257.45</v>
+        <v>257.36666666666667</v>
       </c>
       <c r="B274">
-        <v>0.05</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>257.5</v>
+        <v>257.45</v>
       </c>
       <c r="B275">
         <v>0.05</v>
@@ -2593,55 +2593,55 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>257.56666666666666</v>
+        <v>257.5</v>
       </c>
       <c r="B276">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>257.64999999999998</v>
+        <v>257.56666666666666</v>
       </c>
       <c r="B277">
-        <v>0.21666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>257.68333333333334</v>
+        <v>257.64999999999998</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>257.7</v>
+        <v>257.68333333333334</v>
       </c>
       <c r="B279">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>257.73333333333335</v>
+        <v>257.7</v>
       </c>
       <c r="B280">
-        <v>6.6666666666666666E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>257.81666666666666</v>
+        <v>257.73333333333335</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>257.98333333333335</v>
+        <v>257.81666666666666</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -2649,39 +2649,39 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>258.03333333333336</v>
+        <v>257.98333333333335</v>
       </c>
       <c r="B283">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>258.05</v>
+        <v>258.03333333333336</v>
       </c>
       <c r="B284">
-        <v>0.21666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>258.10000000000002</v>
+        <v>258.05</v>
       </c>
       <c r="B285">
-        <v>0.1</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>258.48333333333335</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="B286">
-        <v>1.6666666666666666E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>258.5</v>
+        <v>258.48333333333335</v>
       </c>
       <c r="B287">
         <v>1.6666666666666666E-2</v>
@@ -2689,23 +2689,23 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>258.55</v>
+        <v>258.5</v>
       </c>
       <c r="B288">
-        <v>0.13333333333333333</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>258.58333333333331</v>
+        <v>258.55</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>258.68333333333334</v>
+        <v>258.58333333333331</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -2713,39 +2713,39 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>258.83333333333331</v>
+        <v>258.68333333333334</v>
       </c>
       <c r="B291">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>258.88333333333333</v>
+        <v>258.83333333333331</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>259.46666666666664</v>
+        <v>258.88333333333333</v>
       </c>
       <c r="B293">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>259.53333333333336</v>
+        <v>259.46666666666664</v>
       </c>
       <c r="B294">
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>259.83333333333331</v>
+        <v>259.53333333333336</v>
       </c>
       <c r="B295">
         <v>0.1</v>
@@ -2753,23 +2753,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>260.13333333333333</v>
+        <v>259.83333333333331</v>
       </c>
       <c r="B296">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>260.35000000000002</v>
+        <v>260.13333333333333</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>260.39999999999998</v>
+        <v>260.35000000000002</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -2777,31 +2777,31 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>260.46666666666664</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="B299">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>260.51666666666665</v>
+        <v>260.46666666666664</v>
       </c>
       <c r="B300">
-        <v>8.3333333333333329E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>260.71666666666664</v>
+        <v>260.51666666666665</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>260.8</v>
+        <v>260.71666666666664</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>261</v>
+        <v>260.8</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -2817,23 +2817,23 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>261.48333333333335</v>
+        <v>261</v>
       </c>
       <c r="B304">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>261.60000000000002</v>
+        <v>261.48333333333335</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>261.66666666666669</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>261.8</v>
+        <v>261.66666666666669</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -2849,31 +2849,31 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>262</v>
+        <v>261.8</v>
       </c>
       <c r="B308">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>262.61666666666667</v>
+        <v>262</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>263.05</v>
+        <v>262.61666666666667</v>
       </c>
       <c r="B310">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>263.35000000000002</v>
+        <v>263.05</v>
       </c>
       <c r="B311">
         <v>8.3333333333333329E-2</v>
@@ -2881,303 +2881,303 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>263.43333333333334</v>
+        <v>263.35000000000002</v>
       </c>
       <c r="B312">
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>263.5</v>
+        <v>263.43333333333334</v>
       </c>
       <c r="B313">
-        <v>0.11666666666666667</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>263.53333333333336</v>
+        <v>263.5</v>
       </c>
       <c r="B314">
-        <v>8.3333333333333329E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>263.64999999999998</v>
+        <v>263.53333333333336</v>
       </c>
       <c r="B315">
-        <v>0.13333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>263.85000000000002</v>
+        <v>263.64999999999998</v>
       </c>
       <c r="B316">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>264</v>
+        <v>263.85000000000002</v>
       </c>
       <c r="B317">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>264.18333333333334</v>
+        <v>264</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>264.2</v>
+        <v>264.18333333333334</v>
       </c>
       <c r="B319">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>264.3</v>
+        <v>264.2</v>
       </c>
       <c r="B320">
-        <v>0.11666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>264.33333333333331</v>
+        <v>264.3</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>264.48333333333335</v>
+        <v>264.33333333333331</v>
       </c>
       <c r="B322">
-        <v>0.11666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>264.60000000000002</v>
+        <v>264.48333333333335</v>
       </c>
       <c r="B323">
-        <v>3.3333333333333333E-2</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>264.8</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="B324">
-        <v>0.11666666666666667</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>264.96666666666664</v>
+        <v>264.8</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>265.01666666666665</v>
+        <v>264.96666666666664</v>
       </c>
       <c r="B326">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>265.36666666666667</v>
+        <v>265.01666666666665</v>
       </c>
       <c r="B327">
-        <v>3.3333333333333333E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>265.81666666666666</v>
+        <v>265.36666666666667</v>
       </c>
       <c r="B328">
-        <v>0.1</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>266</v>
+        <v>265.81666666666666</v>
       </c>
       <c r="B329">
-        <v>0.23333333333333334</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>266.03333333333336</v>
+        <v>266</v>
       </c>
       <c r="B330">
-        <v>0.13333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>266.13333333333333</v>
+        <v>266.03333333333336</v>
       </c>
       <c r="B331">
-        <v>0.11666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>266.2</v>
+        <v>266.13333333333333</v>
       </c>
       <c r="B332">
-        <v>0.05</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>266.91666666666669</v>
+        <v>266.2</v>
       </c>
       <c r="B333">
-        <v>0.13333333333333333</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>266.96666666666664</v>
+        <v>266.91666666666669</v>
       </c>
       <c r="B334">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>267.16666666666669</v>
+        <v>266.96666666666664</v>
       </c>
       <c r="B335">
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>267.2</v>
+        <v>267.16666666666669</v>
       </c>
       <c r="B336">
-        <v>0.11666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>267.28333333333336</v>
+        <v>267.2</v>
       </c>
       <c r="B337">
-        <v>0.6166666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>267.41666666666669</v>
+        <v>267.28333333333336</v>
       </c>
       <c r="B338">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>267.78333333333336</v>
+        <v>267.41666666666669</v>
       </c>
       <c r="B339">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>267.8</v>
+        <v>267.78333333333336</v>
       </c>
       <c r="B340">
-        <v>0.16666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>267.89999999999998</v>
+        <v>267.8</v>
       </c>
       <c r="B341">
-        <v>0.6166666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>267.93333333333334</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="B342">
-        <v>0.11666666666666667</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>268.08333333333331</v>
+        <v>267.93333333333334</v>
       </c>
       <c r="B343">
-        <v>0.41666666666666669</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>268.10000000000002</v>
+        <v>268.08333333333331</v>
       </c>
       <c r="B344">
-        <v>0.11666666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>268.28333333333336</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="B345">
-        <v>0.6</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>268.46666666666664</v>
+        <v>268.28333333333336</v>
       </c>
       <c r="B346">
-        <v>0.43333333333333335</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>268.85000000000002</v>
+        <v>268.46666666666664</v>
       </c>
       <c r="B347">
-        <v>0.58333333333333337</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>268.86666666666667</v>
+        <v>268.85000000000002</v>
       </c>
       <c r="B348">
-        <v>0.7</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>268.98333333333335</v>
+        <v>268.86666666666667</v>
       </c>
       <c r="B349">
         <v>0.7</v>
@@ -3185,23 +3185,23 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>269.21666666666664</v>
+        <v>268.98333333333335</v>
       </c>
       <c r="B350">
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>269.28333333333336</v>
+        <v>269.21666666666664</v>
       </c>
       <c r="B351">
-        <v>0.33333333333333331</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>269.38333333333333</v>
+        <v>269.28333333333336</v>
       </c>
       <c r="B352">
         <v>0.33333333333333331</v>
@@ -3209,15 +3209,15 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>269.45</v>
+        <v>269.38333333333333</v>
       </c>
       <c r="B353">
-        <v>0.11666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>269.46666666666664</v>
+        <v>269.45</v>
       </c>
       <c r="B354">
         <v>0.11666666666666667</v>
@@ -3225,127 +3225,127 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>269.53333333333336</v>
+        <v>269.46666666666664</v>
       </c>
       <c r="B355">
-        <v>0.33333333333333331</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>269.95</v>
+        <v>269.53333333333336</v>
       </c>
       <c r="B356">
-        <v>0.7</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>270</v>
+        <v>269.95</v>
       </c>
       <c r="B357">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>270.06666666666666</v>
+        <v>270</v>
       </c>
       <c r="B358">
-        <v>0.68333333333333335</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>270.41666666666669</v>
+        <v>270.06666666666666</v>
       </c>
       <c r="B359">
-        <v>0.1</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>270.48333333333335</v>
+        <v>270.41666666666669</v>
       </c>
       <c r="B360">
-        <v>0.6166666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>270.64999999999998</v>
+        <v>270.48333333333335</v>
       </c>
       <c r="B361">
-        <v>0.15</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>270.68333333333334</v>
+        <v>270.64999999999998</v>
       </c>
       <c r="B362">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>270.78333333333336</v>
+        <v>270.68333333333334</v>
       </c>
       <c r="B363">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>270.85000000000002</v>
+        <v>270.78333333333336</v>
       </c>
       <c r="B364">
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>270.95</v>
+        <v>270.85000000000002</v>
       </c>
       <c r="B365">
-        <v>0.13333333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>271.13333333333333</v>
+        <v>270.95</v>
       </c>
       <c r="B366">
-        <v>0.73333333333333328</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>271.2</v>
+        <v>271.13333333333333</v>
       </c>
       <c r="B367">
-        <v>0.11666666666666667</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>271.36666666666667</v>
+        <v>271.2</v>
       </c>
       <c r="B368">
-        <v>0.33333333333333331</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>271.46666666666664</v>
+        <v>271.36666666666667</v>
       </c>
       <c r="B369">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>271.73333333333335</v>
+        <v>271.46666666666664</v>
       </c>
       <c r="B370">
         <v>0.25</v>
@@ -3353,191 +3353,191 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>271.91666666666669</v>
+        <v>271.73333333333335</v>
       </c>
       <c r="B371">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>271.98333333333335</v>
+        <v>271.91666666666669</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>272</v>
+        <v>271.98333333333335</v>
       </c>
       <c r="B373">
-        <v>0.68333333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>272.03333333333336</v>
+        <v>272</v>
       </c>
       <c r="B374">
-        <v>0.6</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>272.14999999999998</v>
+        <v>272.03333333333336</v>
       </c>
       <c r="B375">
-        <v>0.16666666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>272.26666666666665</v>
+        <v>272.14999999999998</v>
       </c>
       <c r="B376">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>272.3</v>
+        <v>272.26666666666665</v>
       </c>
       <c r="B377">
-        <v>6.6666666666666666E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>272.36666666666667</v>
+        <v>272.3</v>
       </c>
       <c r="B378">
-        <v>0.25</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>272.51666666666665</v>
+        <v>272.36666666666667</v>
       </c>
       <c r="B379">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>272.60000000000002</v>
+        <v>272.51666666666665</v>
       </c>
       <c r="B380">
-        <v>0.26666666666666666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>272.61666666666667</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="B381">
-        <v>0.7</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>272.85000000000002</v>
+        <v>272.61666666666667</v>
       </c>
       <c r="B382">
-        <v>0.83333333333333337</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>272.88333333333333</v>
+        <v>272.85000000000002</v>
       </c>
       <c r="B383">
-        <v>0.1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>273.31666666666666</v>
+        <v>272.88333333333333</v>
       </c>
       <c r="B384">
-        <v>0.26666666666666666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>273.38333333333333</v>
+        <v>273.31666666666666</v>
       </c>
       <c r="B385">
-        <v>0.48333333333333334</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>273.5</v>
+        <v>273.38333333333333</v>
       </c>
       <c r="B386">
-        <v>0.71666666666666667</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>273.60000000000002</v>
+        <v>273.5</v>
       </c>
       <c r="B387">
-        <v>0.6</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>273.73333333333335</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="B388">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>273.75</v>
+        <v>273.73333333333335</v>
       </c>
       <c r="B389">
-        <v>0.8833333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>273.8</v>
+        <v>273.75</v>
       </c>
       <c r="B390">
-        <v>0.66666666666666663</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>273.85000000000002</v>
+        <v>273.8</v>
       </c>
       <c r="B391">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>273.86666666666667</v>
+        <v>273.85000000000002</v>
       </c>
       <c r="B392">
-        <v>0.26666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>274.05</v>
+        <v>273.86666666666667</v>
       </c>
       <c r="B393">
-        <v>0.1</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>274.08333333333331</v>
+        <v>274.05</v>
       </c>
       <c r="B394">
         <v>0.1</v>
@@ -3545,31 +3545,31 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>274.18333333333334</v>
+        <v>274.08333333333331</v>
       </c>
       <c r="B395">
-        <v>0.38333333333333336</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>274.41666666666669</v>
+        <v>274.18333333333334</v>
       </c>
       <c r="B396">
-        <v>0.68333333333333335</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>274.64999999999998</v>
+        <v>274.41666666666669</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>274.68333333333334</v>
+        <v>274.64999999999998</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -3577,39 +3577,39 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>274.75</v>
+        <v>274.68333333333334</v>
       </c>
       <c r="B399">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>274.91666666666669</v>
+        <v>274.75</v>
       </c>
       <c r="B400">
-        <v>0.38333333333333336</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>275.16666666666669</v>
+        <v>274.91666666666669</v>
       </c>
       <c r="B401">
-        <v>0.6166666666666667</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>275.25</v>
+        <v>275.16666666666669</v>
       </c>
       <c r="B402">
-        <v>0.51666666666666672</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>275.38333333333333</v>
+        <v>275.25</v>
       </c>
       <c r="B403">
         <v>0.51666666666666672</v>
@@ -3617,127 +3617,127 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>275.56666666666666</v>
+        <v>275.38333333333333</v>
       </c>
       <c r="B404">
-        <v>0.66666666666666663</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>275.75</v>
+        <v>275.56666666666666</v>
       </c>
       <c r="B405">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>275.86666666666667</v>
+        <v>275.75</v>
       </c>
       <c r="B406">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>275.89999999999998</v>
+        <v>275.86666666666667</v>
       </c>
       <c r="B407">
-        <v>0.68333333333333335</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>276.13333333333333</v>
+        <v>275.89999999999998</v>
       </c>
       <c r="B408">
-        <v>0.35</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>276.89999999999998</v>
+        <v>276.13333333333333</v>
       </c>
       <c r="B409">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>277.03333333333336</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="B410">
-        <v>1.0666666666666667</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>277.98333333333335</v>
+        <v>277.03333333333336</v>
       </c>
       <c r="B411">
-        <v>0.41666666666666669</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>278</v>
+        <v>277.98333333333335</v>
       </c>
       <c r="B412">
-        <v>0.68333333333333335</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>278.21666666666664</v>
+        <v>278</v>
       </c>
       <c r="B413">
-        <v>1.1333333333333333</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>278.28333333333336</v>
+        <v>278.21666666666664</v>
       </c>
       <c r="B414">
-        <v>0.3</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>278.31666666666666</v>
+        <v>278.28333333333336</v>
       </c>
       <c r="B415">
-        <v>0.16666666666666666</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>278.39999999999998</v>
+        <v>278.31666666666666</v>
       </c>
       <c r="B416">
-        <v>1.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>278.5</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="B417">
-        <v>0.56666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>278.73333333333335</v>
+        <v>278.5</v>
       </c>
       <c r="B418">
-        <v>0.5</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>278.76666666666665</v>
+        <v>278.73333333333335</v>
       </c>
       <c r="B419">
         <v>0.5</v>
@@ -3745,15 +3745,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>278.86666666666667</v>
+        <v>278.76666666666665</v>
       </c>
       <c r="B420">
-        <v>0.56666666666666665</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>278.95</v>
+        <v>278.86666666666667</v>
       </c>
       <c r="B421">
         <v>0.56666666666666665</v>
@@ -3761,71 +3761,71 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>279.03333333333336</v>
+        <v>278.95</v>
       </c>
       <c r="B422">
-        <v>0.5</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>279.23333333333335</v>
+        <v>279.03333333333336</v>
       </c>
       <c r="B423">
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>279.3</v>
+        <v>279.23333333333335</v>
       </c>
       <c r="B424">
-        <v>0.13333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>279.33333333333331</v>
+        <v>279.3</v>
       </c>
       <c r="B425">
-        <v>0.18333333333333332</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>279.51666666666665</v>
+        <v>279.33333333333331</v>
       </c>
       <c r="B426">
-        <v>1.2166666666666668</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>279.56666666666666</v>
+        <v>279.51666666666665</v>
       </c>
       <c r="B427">
-        <v>0.8</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>279.64999999999998</v>
+        <v>279.56666666666666</v>
       </c>
       <c r="B428">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>279.71666666666664</v>
+        <v>279.64999999999998</v>
       </c>
       <c r="B429">
-        <v>0.6166666666666667</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>279.76666666666665</v>
+        <v>279.71666666666664</v>
       </c>
       <c r="B430">
         <v>0.6166666666666667</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>279.8</v>
+        <v>279.76666666666665</v>
       </c>
       <c r="B431">
         <v>0.6166666666666667</v>
@@ -3841,255 +3841,255 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>280.03333333333336</v>
+        <v>279.8</v>
       </c>
       <c r="B432">
-        <v>0.18333333333333332</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>280.45</v>
+        <v>280.03333333333336</v>
       </c>
       <c r="B433">
-        <v>0.83333333333333337</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>280.68333333333334</v>
+        <v>280.45</v>
       </c>
       <c r="B434">
-        <v>0.1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>280.73333333333335</v>
+        <v>280.68333333333334</v>
       </c>
       <c r="B435">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>280.96666666666664</v>
+        <v>280.73333333333335</v>
       </c>
       <c r="B436">
-        <v>1.3166666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>281.06666666666666</v>
+        <v>280.96666666666664</v>
       </c>
       <c r="B437">
-        <v>0.15</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>281.33333333333331</v>
+        <v>281.06666666666666</v>
       </c>
       <c r="B438">
-        <v>0.8666666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>281.35000000000002</v>
+        <v>281.33333333333331</v>
       </c>
       <c r="B439">
-        <v>0.18333333333333332</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>281.64999999999998</v>
+        <v>281.35000000000002</v>
       </c>
       <c r="B440">
-        <v>0.8833333333333333</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>281.7</v>
+        <v>281.64999999999998</v>
       </c>
       <c r="B441">
-        <v>0.05</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>282.23333333333335</v>
+        <v>281.7</v>
       </c>
       <c r="B442">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>283.26666666666665</v>
+        <v>282.23333333333335</v>
       </c>
       <c r="B443">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>283.41666666666669</v>
+        <v>283.26666666666665</v>
       </c>
       <c r="B444">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>284.08333333333331</v>
+        <v>283.41666666666669</v>
       </c>
       <c r="B445">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>284.16666666666669</v>
+        <v>284.08333333333331</v>
       </c>
       <c r="B446">
-        <v>1.1666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>284.2</v>
+        <v>284.16666666666669</v>
       </c>
       <c r="B447">
-        <v>0.75</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>284.39999999999998</v>
+        <v>284.2</v>
       </c>
       <c r="B448">
-        <v>0.98333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>284.63333333333333</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="B449">
-        <v>0.21666666666666667</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>284.85000000000002</v>
+        <v>284.63333333333333</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>285.14999999999998</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="B451">
-        <v>0.78333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>285.43333333333334</v>
+        <v>285.14999999999998</v>
       </c>
       <c r="B452">
-        <v>0.6333333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>285.46666666666664</v>
+        <v>285.43333333333334</v>
       </c>
       <c r="B453">
-        <v>1.0833333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>285.88333333333333</v>
+        <v>285.46666666666664</v>
       </c>
       <c r="B454">
-        <v>0.35</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>286.01666666666665</v>
+        <v>285.88333333333333</v>
       </c>
       <c r="B455">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>286.21666666666664</v>
+        <v>286.01666666666665</v>
       </c>
       <c r="B456">
-        <v>0.46666666666666667</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>286.23333333333335</v>
+        <v>286.21666666666664</v>
       </c>
       <c r="B457">
-        <v>1.0666666666666667</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>287.35000000000002</v>
+        <v>286.23333333333335</v>
       </c>
       <c r="B458">
-        <v>1.2166666666666668</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>287.75</v>
+        <v>287.35000000000002</v>
       </c>
       <c r="B459">
-        <v>0.98333333333333328</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>288.05</v>
+        <v>287.75</v>
       </c>
       <c r="B460">
-        <v>1.05</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>288.18333333333334</v>
+        <v>288.05</v>
       </c>
       <c r="B461">
-        <v>0.83333333333333337</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>288.25</v>
+        <v>288.18333333333334</v>
       </c>
       <c r="B462">
-        <v>0.8666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>288.53333333333336</v>
+        <v>288.25</v>
       </c>
       <c r="B463">
         <v>0.8666666666666667</v>
@@ -4097,487 +4097,487 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>288.73333333333335</v>
+        <v>288.53333333333336</v>
       </c>
       <c r="B464">
-        <v>0.6333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>288.89999999999998</v>
+        <v>288.73333333333335</v>
       </c>
       <c r="B465">
-        <v>1.1499999999999999</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>289.36666666666667</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="B466">
-        <v>1.2333333333333334</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>289.73333333333335</v>
+        <v>289.36666666666667</v>
       </c>
       <c r="B467">
-        <v>0.71666666666666667</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>290.38333333333333</v>
+        <v>289.73333333333335</v>
       </c>
       <c r="B468">
-        <v>1.4166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>290.39999999999998</v>
+        <v>290.38333333333333</v>
       </c>
       <c r="B469">
-        <v>0.43333333333333335</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>290.96666666666664</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="B470">
-        <v>0.75</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>291.31666666666666</v>
+        <v>290.96666666666664</v>
       </c>
       <c r="B471">
-        <v>1.2166666666666668</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>291.71666666666664</v>
+        <v>291.31666666666666</v>
       </c>
       <c r="B472">
-        <v>1.0166666666666666</v>
+        <v>1.2166666666666668</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>291.75</v>
+        <v>291.71666666666664</v>
       </c>
       <c r="B473">
-        <v>0.41666666666666669</v>
+        <v>1.0166666666666666</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>291.83333333333331</v>
+        <v>291.75</v>
       </c>
       <c r="B474">
-        <v>0.83333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>291.93333333333334</v>
+        <v>291.83333333333331</v>
       </c>
       <c r="B475">
-        <v>0.6166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>292.26666666666665</v>
+        <v>291.93333333333334</v>
       </c>
       <c r="B476">
-        <v>0.43333333333333335</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>292.35000000000002</v>
+        <v>292.26666666666665</v>
       </c>
       <c r="B477">
-        <v>1.1000000000000001</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>292.36666666666667</v>
+        <v>292.35000000000002</v>
       </c>
       <c r="B478">
-        <v>1.3166666666666667</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>292.66666666666669</v>
+        <v>292.36666666666667</v>
       </c>
       <c r="B479">
-        <v>0.68333333333333335</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>293.41666666666669</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="B480">
-        <v>6.6666666666666666E-2</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>296.10000000000002</v>
+        <v>293.41666666666669</v>
       </c>
       <c r="B481">
-        <v>1.2333333333333334</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>296.26666666666665</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="B482">
-        <v>1.3166666666666667</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>296.93333333333334</v>
+        <v>296.26666666666665</v>
       </c>
       <c r="B483">
-        <v>0.68333333333333335</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>297.88333333333333</v>
+        <v>296.93333333333334</v>
       </c>
       <c r="B484">
-        <v>0.7</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>299.06666666666666</v>
+        <v>297.88333333333333</v>
       </c>
       <c r="B485">
-        <v>0.83333333333333337</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>300.39999999999998</v>
+        <v>299.06666666666666</v>
       </c>
       <c r="B486">
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>300.46666666666664</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="B487">
-        <v>0.73333333333333328</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>301.2</v>
+        <v>300.46666666666664</v>
       </c>
       <c r="B488">
-        <v>0.21666666666666667</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>301.8</v>
+        <v>301.2</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>302.3</v>
+        <v>301.8</v>
       </c>
       <c r="B490">
-        <v>0.78333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>303.23333333333335</v>
+        <v>302.3</v>
       </c>
       <c r="B491">
-        <v>1.0833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>303.5</v>
+        <v>303.23333333333335</v>
       </c>
       <c r="B492">
-        <v>0.11666666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>304.31666666666666</v>
+        <v>303.5</v>
       </c>
       <c r="B493">
-        <v>0.8</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>304.55</v>
+        <v>304.31666666666666</v>
       </c>
       <c r="B494">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>304.56666666666666</v>
+        <v>304.55</v>
       </c>
       <c r="B495">
-        <v>0.71666666666666667</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>305.11666666666667</v>
+        <v>304.56666666666666</v>
       </c>
       <c r="B496">
-        <v>0.8</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>305.14999999999998</v>
+        <v>305.11666666666667</v>
       </c>
       <c r="B497">
-        <v>1.1499999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>305.88333333333333</v>
+        <v>305.14999999999998</v>
       </c>
       <c r="B498">
-        <v>1.1666666666666667</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>306.18333333333334</v>
+        <v>305.88333333333333</v>
       </c>
       <c r="B499">
-        <v>1.0833333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>307.45</v>
+        <v>306.18333333333334</v>
       </c>
       <c r="B500">
-        <v>0.95</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>307.76666666666665</v>
+        <v>307.45</v>
       </c>
       <c r="B501">
-        <v>1.3333333333333333</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>307.91666666666669</v>
+        <v>307.76666666666665</v>
       </c>
       <c r="B502">
-        <v>1.95</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>309.13333333333333</v>
+        <v>307.91666666666669</v>
       </c>
       <c r="B503">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>309.3</v>
+        <v>309.13333333333333</v>
       </c>
       <c r="B504">
-        <v>1.2833333333333332</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>309.75</v>
+        <v>309.3</v>
       </c>
       <c r="B505">
-        <v>1.8833333333333333</v>
+        <v>1.2833333333333332</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>311.53333333333336</v>
+        <v>309.75</v>
       </c>
       <c r="B506">
-        <v>1.8</v>
+        <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>311.76666666666665</v>
+        <v>311.53333333333336</v>
       </c>
       <c r="B507">
-        <v>2.0333333333333332</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>312.98333333333335</v>
+        <v>311.76666666666665</v>
       </c>
       <c r="B508">
-        <v>0.75</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>315.83333333333331</v>
+        <v>312.98333333333335</v>
       </c>
       <c r="B509">
-        <v>2.1333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>317.43333333333334</v>
+        <v>315.83333333333331</v>
       </c>
       <c r="B510">
-        <v>1.5666666666666667</v>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>318.06666666666666</v>
+        <v>317.43333333333334</v>
       </c>
       <c r="B511">
-        <v>1.6666666666666665</v>
+        <v>1.5666666666666667</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>318.86666666666667</v>
+        <v>318.06666666666666</v>
       </c>
       <c r="B512">
-        <v>1.7166666666666668</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>319.64999999999998</v>
+        <v>318.86666666666667</v>
       </c>
       <c r="B513">
-        <v>1.7833333333333332</v>
+        <v>1.7166666666666668</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>320.36666666666667</v>
+        <v>319.64999999999998</v>
       </c>
       <c r="B514">
-        <v>1.8333333333333335</v>
+        <v>1.7833333333333332</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>321</v>
+        <v>320.36666666666667</v>
       </c>
       <c r="B515">
-        <v>1.7333333333333334</v>
+        <v>1.8333333333333335</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>321.36666666666667</v>
+        <v>321</v>
       </c>
       <c r="B516">
-        <v>1.9</v>
+        <v>1.7333333333333334</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>321.43333333333334</v>
+        <v>321.36666666666667</v>
       </c>
       <c r="B517">
-        <v>2.7166666666666668</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>323.7</v>
+        <v>321.43333333333334</v>
       </c>
       <c r="B518">
-        <v>2.95</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>324.3</v>
+        <v>323.7</v>
       </c>
       <c r="B519">
-        <v>2.6833333333333336</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>327.28333333333336</v>
+        <v>324.3</v>
       </c>
       <c r="B520">
-        <v>2.7166666666666668</v>
+        <v>2.6833333333333336</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>335.81666666666666</v>
+        <v>327.28333333333336</v>
       </c>
       <c r="B521">
-        <v>3.0833333333333335</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>335.83333333333331</v>
+        <v>335.81666666666666</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>337.7</v>
+        <v>335.83333333333331</v>
       </c>
       <c r="B523">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>339.76666666666665</v>
+        <v>337.7</v>
       </c>
       <c r="B524">
         <v>2.6</v>
@@ -4585,111 +4585,127 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>341.48333333333335</v>
+        <v>339.76666666666665</v>
       </c>
       <c r="B525">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>341.83333333333331</v>
+        <v>341.48333333333335</v>
       </c>
       <c r="B526">
-        <v>1.0666666666666667</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>345.75</v>
+        <v>341.83333333333331</v>
       </c>
       <c r="B527">
-        <v>3.0333333333333332</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>349.55</v>
+        <v>345.75</v>
       </c>
       <c r="B528">
-        <v>2.7666666666666666</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>351.35</v>
+        <v>349.55</v>
       </c>
       <c r="B529">
-        <v>1.05</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>351.85</v>
+        <v>351.35</v>
       </c>
       <c r="B530">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>352.1</v>
+        <v>351.85</v>
       </c>
       <c r="B531">
-        <v>2.7833333333333332</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>352.53333333333336</v>
+        <v>352.1</v>
       </c>
       <c r="B532">
-        <v>2.5333333333333332</v>
+        <v>2.7833333333333332</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>353.73333333333335</v>
+        <v>352.53333333333336</v>
       </c>
       <c r="B533">
-        <v>0.96666666666666667</v>
+        <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>354.28333333333336</v>
+        <v>353.73333333333335</v>
       </c>
       <c r="B534">
-        <v>0.98333333333333328</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>355.35</v>
+        <v>354.28333333333336</v>
       </c>
       <c r="B535">
-        <v>1.5</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>356.66666666666669</v>
+        <v>355.35</v>
       </c>
       <c r="B536">
-        <v>1.7666666666666666</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
+        <v>356.66666666666669</v>
+      </c>
+      <c r="B537">
+        <v>1.7666666666666666</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
         <v>358.65</v>
       </c>
-      <c r="B537">
+      <c r="B538">
         <v>2.8</v>
       </c>
     </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>360</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B544">
-    <sortCondition ref="A2:A544"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B545">
+    <sortCondition ref="A3:A545"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
